--- a/samples/4-Sheets-SA-عينة-مدارس-وروضات-preview.xlsx
+++ b/samples/4-Sheets-SA-عينة-مدارس-وروضات-preview.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="649">
   <si>
     <t>Name_ar</t>
   </si>
@@ -55,124 +55,124 @@
     <t>Center Type</t>
   </si>
   <si>
-    <t>مركز رعاية الام ضيافة الاطفال الاهلية</t>
-  </si>
-  <si>
-    <t>مركز عالم خلود للمرح لضيافة الاطفال الاهلية</t>
-  </si>
-  <si>
-    <t>مركز براعم النرجس لضيافة الأطفال</t>
-  </si>
-  <si>
-    <t>مدارس الخوالد الأهلية</t>
-  </si>
-  <si>
-    <t>شركة المميزون الصغار لضيافة الاطفال</t>
-  </si>
-  <si>
-    <t>مركز بسمة الطفولة لرعاية الاطفال</t>
-  </si>
-  <si>
-    <t>شركة اثراء المستقبل لرياض الأطفال</t>
-  </si>
-  <si>
-    <t>مدارس المنهل الاهلية</t>
-  </si>
-  <si>
-    <t>معهد روح التحدي للتدريب</t>
-  </si>
-  <si>
-    <t>مركز ديار الطفل</t>
+    <t>مركز رعاية الا...</t>
+  </si>
+  <si>
+    <t>مركز عالم خلود...</t>
+  </si>
+  <si>
+    <t>مركز براعم الن...</t>
+  </si>
+  <si>
+    <t>مدارس الخوالد ...</t>
+  </si>
+  <si>
+    <t>شركة المميزون ...</t>
+  </si>
+  <si>
+    <t>مركز بسمة الطف...</t>
+  </si>
+  <si>
+    <t>شركة اثراء الم...</t>
+  </si>
+  <si>
+    <t>مدارس المنهل ا...</t>
+  </si>
+  <si>
+    <t>معهد روح التحد...</t>
+  </si>
+  <si>
+    <t>مركز ديار الطف...</t>
   </si>
   <si>
     <t>مرح الطفولة</t>
   </si>
   <si>
-    <t>مركز صغاري ضيافة الأطفال الأهلية</t>
-  </si>
-  <si>
-    <t>الروضة النموذجية المطورة للأطفال</t>
-  </si>
-  <si>
-    <t>مركز ابداع الاطفال</t>
-  </si>
-  <si>
-    <t>مدارس أنجال الابداع الاهليه</t>
+    <t>مركز صغاري ضيا...</t>
+  </si>
+  <si>
+    <t>الروضة النموذج...</t>
+  </si>
+  <si>
+    <t>مركز ابداع الا...</t>
+  </si>
+  <si>
+    <t>مدارس أنجال ال...</t>
   </si>
   <si>
     <t>قرية الطفولة</t>
   </si>
   <si>
-    <t>مركز زئبق الياقوت لضيافة الأطفال الأهليه</t>
-  </si>
-  <si>
-    <t>مركز علم بالقلم الأهلية لضيافة الأطفال</t>
-  </si>
-  <si>
-    <t>مركز النجوم العالية ضيافة الأطفال الأهلية</t>
-  </si>
-  <si>
-    <t>مركز مزون ضيافة الأطفال الأهلية</t>
-  </si>
-  <si>
-    <t>مركز فراشة لضيافة الاطفال</t>
-  </si>
-  <si>
-    <t>مركز كوخ الأطفال لضيافة الأطفال</t>
-  </si>
-  <si>
-    <t>مركز خطوات الطفولة</t>
-  </si>
-  <si>
-    <t>مركز بداية مشرقة لضيافة الاطفال</t>
-  </si>
-  <si>
-    <t>روضة رواد الملاحة الاهلية</t>
-  </si>
-  <si>
-    <t>مركز اليوم المشرق لضيافة الاطفال</t>
-  </si>
-  <si>
-    <t>مركز ضيافة الشموخ</t>
-  </si>
-  <si>
-    <t>سواعد وافكار لضيافة الأطفال</t>
-  </si>
-  <si>
-    <t>مركز حمد ضيافة الاطفال الاهلية</t>
-  </si>
-  <si>
-    <t>Mother Care Center Children's Hospitality National</t>
-  </si>
-  <si>
-    <t>loody's world fun</t>
-  </si>
-  <si>
-    <t>narcissus buds</t>
-  </si>
-  <si>
-    <t>alkhawalid school</t>
+    <t>مركز زئبق اليا...</t>
+  </si>
+  <si>
+    <t>مركز علم بالقل...</t>
+  </si>
+  <si>
+    <t>مركز النجوم ال...</t>
+  </si>
+  <si>
+    <t>مركز مزون ضياف...</t>
+  </si>
+  <si>
+    <t>مركز فراشة لضي...</t>
+  </si>
+  <si>
+    <t>مركز كوخ الأطف...</t>
+  </si>
+  <si>
+    <t>مركز خطوات الط...</t>
+  </si>
+  <si>
+    <t>مركز بداية مشر...</t>
+  </si>
+  <si>
+    <t>روضة رواد المل...</t>
+  </si>
+  <si>
+    <t>مركز اليوم الم...</t>
+  </si>
+  <si>
+    <t>مركز ضيافة الش...</t>
+  </si>
+  <si>
+    <t>سواعد وافكار ل...</t>
+  </si>
+  <si>
+    <t>مركز حمد ضيافة...</t>
+  </si>
+  <si>
+    <t>Mother Care Ce...</t>
+  </si>
+  <si>
+    <t>loody's world ...</t>
+  </si>
+  <si>
+    <t>narcissus buds...</t>
+  </si>
+  <si>
+    <t>alkhawalid sch...</t>
   </si>
   <si>
     <t>iam special</t>
   </si>
   <si>
-    <t>BasmatAl-Tofulah Childrenms Hospitality Center</t>
-  </si>
-  <si>
-    <t>Ethra Almostagbal company</t>
-  </si>
-  <si>
-    <t>SPIRIT OF CHALLENGE TRAINING INSTITUTE</t>
+    <t>BasmatAl-Toful...</t>
+  </si>
+  <si>
+    <t>Ethra Almostag...</t>
+  </si>
+  <si>
+    <t>SPIRIT OF CHAL...</t>
   </si>
   <si>
     <t>marah altfolh</t>
   </si>
   <si>
-    <t>children,s hospitality junior center</t>
-  </si>
-  <si>
-    <t>The Typical Developed Kindergarten</t>
+    <t>children,s hos...</t>
+  </si>
+  <si>
+    <t>The Typical De...</t>
   </si>
   <si>
     <t>ibdaa alatfal</t>
@@ -181,7 +181,7 @@
     <t>ANJAL ALEBDA</t>
   </si>
   <si>
-    <t>markaz zibaq alyaqut</t>
+    <t>markaz zibaq a...</t>
   </si>
   <si>
     <t>High stars</t>
@@ -193,37 +193,37 @@
     <t>frasha</t>
   </si>
   <si>
-    <t>Childhood steps</t>
-  </si>
-  <si>
-    <t>BRIGHT BEGINNING</t>
-  </si>
-  <si>
-    <t>National Navigation Pioneers Kindergarten</t>
-  </si>
-  <si>
-    <t>Sunny Day Center</t>
-  </si>
-  <si>
-    <t>Nurserya alshmokh</t>
-  </si>
-  <si>
-    <t>Forearms and thoughts</t>
-  </si>
-  <si>
-    <t>Hamad Center for Hospitality for Children</t>
+    <t>Childhood step...</t>
+  </si>
+  <si>
+    <t>BRIGHT BEGINNI...</t>
+  </si>
+  <si>
+    <t>National Navig...</t>
+  </si>
+  <si>
+    <t>Sunny Day Cent...</t>
+  </si>
+  <si>
+    <t>Nurserya alshm...</t>
+  </si>
+  <si>
+    <t>Forearms and t...</t>
+  </si>
+  <si>
+    <t>Hamad Center f...</t>
   </si>
   <si>
     <t>مكة المكرمة</t>
   </si>
   <si>
-    <t>المنطقة الشرقية</t>
+    <t>المنطقة الشرقي...</t>
   </si>
   <si>
     <t>الرياض</t>
   </si>
   <si>
-    <t>الحدود الشمالية</t>
+    <t>الحدود الشمالي...</t>
   </si>
   <si>
     <t>القصيم</t>
@@ -232,7 +232,7 @@
     <t>جيزان</t>
   </si>
   <si>
-    <t>المدينة المنورة</t>
+    <t>المدينة المنور...</t>
   </si>
   <si>
     <t>جدة</t>
@@ -445,124 +445,124 @@
     <t>+966561644733</t>
   </si>
   <si>
-    <t>manifatooh@gmail.com</t>
-  </si>
-  <si>
-    <t>kholod.work1@gmail.com</t>
-  </si>
-  <si>
-    <t>nbuds.daycare4@gmail.com</t>
-  </si>
-  <si>
-    <t>kids.school1444@gmail.com</t>
-  </si>
-  <si>
-    <t>msmemo11@yahoo.com</t>
-  </si>
-  <si>
-    <t>wejdaan2021@outlook.com</t>
-  </si>
-  <si>
-    <t>faisalsabah_224@yahoo.com</t>
-  </si>
-  <si>
-    <t>tamerlg75@gmail.com</t>
-  </si>
-  <si>
-    <t>info@scti.com.sa</t>
+    <t>manifatooh@gma...</t>
+  </si>
+  <si>
+    <t>kholod.work1@g...</t>
+  </si>
+  <si>
+    <t>nbuds.daycare4...</t>
+  </si>
+  <si>
+    <t>kids.school144...</t>
+  </si>
+  <si>
+    <t>msmemo11@yahoo...</t>
+  </si>
+  <si>
+    <t>wejdaan2021@ou...</t>
+  </si>
+  <si>
+    <t>faisalsabah_22...</t>
+  </si>
+  <si>
+    <t>tamerlg75@gmai...</t>
+  </si>
+  <si>
+    <t>info@scti.com....</t>
   </si>
   <si>
     <t>info@kafo.sa</t>
   </si>
   <si>
-    <t>marah.altfolh@gmail.com</t>
-  </si>
-  <si>
-    <t>f00.f00@icloud.com</t>
-  </si>
-  <si>
-    <t>yousef5828640@gmail.com</t>
-  </si>
-  <si>
-    <t>adyafhalatfal@gmail.com</t>
-  </si>
-  <si>
-    <t>anjalalebda1122@gmail.com</t>
-  </si>
-  <si>
-    <t>alnawal06@gmail.com</t>
-  </si>
-  <si>
-    <t>awmwassan1408@gmail.com</t>
-  </si>
-  <si>
-    <t>alward28@hotmail.com</t>
-  </si>
-  <si>
-    <t>info@highstarsedu.com</t>
-  </si>
-  <si>
-    <t>daallall7000@gmail.com</t>
-  </si>
-  <si>
-    <t>butterflyctr1@gmail.com</t>
-  </si>
-  <si>
-    <t>kidshut2020@gmail.com</t>
-  </si>
-  <si>
-    <t>childsteps.12@gmail.com</t>
-  </si>
-  <si>
-    <t>bright-beginning@outlook.com</t>
-  </si>
-  <si>
-    <t>m15h2015m@gmail.com</t>
-  </si>
-  <si>
-    <t>info@sunnydaycare.net</t>
-  </si>
-  <si>
-    <t>nursery.alshmokh444@gmail.com</t>
-  </si>
-  <si>
-    <t>afrah14134a@gmail.com</t>
-  </si>
-  <si>
-    <t>sa_m24@hotmail.com</t>
-  </si>
-  <si>
-    <t>العلاء بن زياد</t>
-  </si>
-  <si>
-    <t>7034 محمد بن ابي بكر</t>
-  </si>
-  <si>
-    <t>ابن سينا العبدي</t>
-  </si>
-  <si>
-    <t>أبو الحمراء الأنصاري</t>
+    <t>marah.altfolh@...</t>
+  </si>
+  <si>
+    <t>f00.f00@icloud...</t>
+  </si>
+  <si>
+    <t>yousef5828640@...</t>
+  </si>
+  <si>
+    <t>adyafhalatfal@...</t>
+  </si>
+  <si>
+    <t>anjalalebda112...</t>
+  </si>
+  <si>
+    <t>alnawal06@gmai...</t>
+  </si>
+  <si>
+    <t>awmwassan1408@...</t>
+  </si>
+  <si>
+    <t>alward28@hotma...</t>
+  </si>
+  <si>
+    <t>info@highstars...</t>
+  </si>
+  <si>
+    <t>daallall7000@g...</t>
+  </si>
+  <si>
+    <t>butterflyctr1@...</t>
+  </si>
+  <si>
+    <t>kidshut2020@gm...</t>
+  </si>
+  <si>
+    <t>childsteps.12@...</t>
+  </si>
+  <si>
+    <t>bright-beginni...</t>
+  </si>
+  <si>
+    <t>m15h2015m@gmai...</t>
+  </si>
+  <si>
+    <t>info@sunnydayc...</t>
+  </si>
+  <si>
+    <t>nursery.alshmo...</t>
+  </si>
+  <si>
+    <t>afrah14134a@gm...</t>
+  </si>
+  <si>
+    <t>sa_m24@hotmail...</t>
+  </si>
+  <si>
+    <t>العلاء بن زياد...</t>
+  </si>
+  <si>
+    <t>7034 محمد بن ا...</t>
+  </si>
+  <si>
+    <t>ابن سينا العبد...</t>
+  </si>
+  <si>
+    <t>أبو الحمراء ال...</t>
   </si>
   <si>
     <t>السويدي العام</t>
   </si>
   <si>
-    <t>شارع الأمير عبدالمجيد</t>
-  </si>
-  <si>
-    <t>عمر بن الخطاب حي المنتزة</t>
-  </si>
-  <si>
-    <t>نسيبة الانصارية</t>
+    <t>شارع الأمير عب...</t>
+  </si>
+  <si>
+    <t>عمر بن الخطاب ...</t>
+  </si>
+  <si>
+    <t>نسيبة الانصاري...</t>
   </si>
   <si>
     <t>2832 Road 120</t>
   </si>
   <si>
-    <t>الصناعية الجديدة</t>
-  </si>
-  <si>
-    <t>7703 أبي العباس القيسي</t>
+    <t>الصناعية الجدي...</t>
+  </si>
+  <si>
+    <t>7703 أبي العبا...</t>
   </si>
   <si>
     <t>المنتزهات</t>
@@ -571,10 +571,10 @@
     <t>الثلاثين</t>
   </si>
   <si>
-    <t>طريق الملك فيصل</t>
-  </si>
-  <si>
-    <t>7893 طاهر العمراني</t>
+    <t>طريق الملك فيص...</t>
+  </si>
+  <si>
+    <t>7893 طاهر العم...</t>
   </si>
   <si>
     <t>الفرسان</t>
@@ -583,37 +583,37 @@
     <t>جناب الأنصاري</t>
   </si>
   <si>
-    <t>متوسطة البندرية</t>
-  </si>
-  <si>
-    <t>2575 مهد الذهب</t>
+    <t>متوسطة البندري...</t>
+  </si>
+  <si>
+    <t>2575 مهد الذهب...</t>
   </si>
   <si>
     <t>خط قطر</t>
   </si>
   <si>
-    <t>جدة حي الأجواد شارع ورش</t>
-  </si>
-  <si>
-    <t>8578 النعمان بن عجلان</t>
-  </si>
-  <si>
-    <t>علقمه بن الغفواء</t>
+    <t>جدة حي الأجواد...</t>
+  </si>
+  <si>
+    <t>8578 النعمان ب...</t>
+  </si>
+  <si>
+    <t>علقمه بن الغفو...</t>
   </si>
   <si>
     <t>الخزان</t>
   </si>
   <si>
-    <t>7757 اكال بن النعمان</t>
+    <t>7757 اكال بن ا...</t>
   </si>
   <si>
     <t>Ali bin Hajar</t>
   </si>
   <si>
-    <t>7163 المقدام ابن معد يكرب</t>
-  </si>
-  <si>
-    <t>7946 الشارع الخامس عشر</t>
+    <t>7163 المقدام ا...</t>
+  </si>
+  <si>
+    <t>7946 الشارع ال...</t>
   </si>
   <si>
     <t>23824</t>
@@ -703,124 +703,58 @@
     <t>34623</t>
   </si>
   <si>
-    <t>مركز ضيافة أطفال من عمر شهر وحتى 12 سنة</t>
-  </si>
-  <si>
-    <t>شركه اثراء المستقبل لرياض الاطفال حضانه -روضه-تمهيدي</t>
-  </si>
-  <si>
-    <t>تقدم المدرسة خدمة رعاية الاطفال من عمر يوم الى عمر اربع سنوات</t>
-  </si>
-  <si>
-    <t>مركز اطفال اهلي باسم ديار الطفل ومقره الرياض حي الصناعية الجديدة</t>
-  </si>
-  <si>
-    <t>معتمد لدى وزارة التعليم روضة تعليمية وتربوية وترفيهية للأطفال</t>
-  </si>
-  <si>
-    <t>مركز ضيافه للاطفال تابع لجمعية اسهام للارشاد الاجتماعي تحت اسم ابداع الاطفال نقبل من سن 3 سنوات الى 6 سنوات يبداء الدوام من الساعه 8 صباحا حتى ال2 مساء</t>
-  </si>
-  <si>
-    <t>مركز استضافة أطفال في حي الفرسان من عمر شهر الى ست سنوات من الساعة سته صباحا الى سته مساء</t>
-  </si>
-  <si>
-    <t>مركز زئبق الياقوت لضيافة الأطفال الأهليه بالدرب تحت إشراف وزارة الموارد البشريه والتنمية الأجتماعيه رقم الترخيص 608 مركز يُعني بتنمية مهارات الطفولة المبكرة وصقل أبداعاته ومساندته في التعلم والمرح</t>
-  </si>
-  <si>
-    <t>مركز متطور على احدث مستوى لتنمية جميع مهارات الصغار بمساحة مبنى 1200 متر تتوفر جميع وسائل الأمن و السلامة والألعاب الداخلية والخارجية ومعامل الأكتشاف والمغامرة مركز مشوق لجميع الاطفال نتقبل الاطفال من عمر 3 شهور الى 6 سنوات صباحي ومن 3 شهور الى 10 سنوات مسائي</t>
-  </si>
-  <si>
-    <t>رؤيتنا تنشئة العقول الصاعدة لإعداد اطفال قادرين على قيادة المستقبل</t>
-  </si>
-  <si>
-    <t>مركز لضيافة الأطفال من عمر شهرين الى عمر 5 سنوات للفترة الصباحية,ومن عمر شهرين الى 10 سنوات للفترة المسائية يقدم برامج تعليمية وترفيهية وتنمية الذات والابتكار وأنشطة رياضية وعالم التقنية</t>
-  </si>
-  <si>
-    <t>مركز كوخ الأطفال لضيافة الأطفل من سن شهر إلى 10 سنوات بنات ومن سن شهر إلى 6 سنوات بنين من الساعة 7 ص إلى 1 م ومن 4 م إلى 9 م يوم السبت رسوم إضافية</t>
-  </si>
-  <si>
-    <t>رعاية نهارية  2 - 6 سنوات  06:00 صباحاً - 10:00 مساءً  حضانة  0 - 3 سنوات  06:00 صباحاً - 01:00 مساءً</t>
-  </si>
-  <si>
-    <t>رعاية نهارية  0 - 2 سنوات  08:00 صباحاً - 06:00 مساءً  تمهيدي  3 - 6 سنوات  08:00 صباحاً - 06:00 مساءً  روضة  3 - 6 سنوات  08:00 صباحاً - 06:00 مساءً</t>
-  </si>
-  <si>
-    <t>تمهيدي  3 - 6 سنوات  07:00 صباحاً - 06:00 مساءً  روضة  3 - 6 سنوات  06:30 صباحاً - 12:30 مساءً  رعاية نهارية  0 - 2 سنوات  07:00 صباحاً - 05:00 مساءً  رعاية نهارية  2 - 6 سنوات  07:00 صباحاً - 05:00 مساءً  حضانة  0 - 3 سنوات  06:30 صباحاً - 12:30 مساءً  حضانة  0 - 3 سنوات  06:30 صباحاً - 12:30 مساءً</t>
-  </si>
-  <si>
-    <t>حضانة  0 - 3 سنوات  07:00 صباحاً - 12:30 مساءً  تمهيدي  3 - 6 سنوات  07:00 صباحاً - 12:30 مساءً</t>
-  </si>
-  <si>
-    <t>رعاية نهارية  6 - 10 سنوات  02:00 مساءً - 11:30 مساءً</t>
-  </si>
-  <si>
-    <t>تمهيدي  3 - 6 سنوات  07:00 صباحاً - 11:30 صباحاً  رعاية نهارية  2 - 6 سنوات  07:00 صباحاً - 12:00 مساءً  روضة  3 - 6 سنوات  09:00 صباحاً - 11:30 صباحاً  حضانة  0 - 3 سنوات  07:00 صباحاً - 12:00 مساءً  حضانة  0 - 3 سنوات  07:00 صباحاً - 12:00 مساءً</t>
-  </si>
-  <si>
-    <t>تمهيدي  3 - 6 سنوات  07:00 صباحاً - 12:00 مساءً  روضة  3 - 6 سنوات  07:00 صباحاً - 12:00 مساءً  حضانة  0 - 3 سنوات  06:30 صباحاً - 09:00 مساءً</t>
-  </si>
-  <si>
-    <t>حضانة  0 - 3 سنوات  06:00 صباحاً - 02:00 مساءً  روضة  3 - 6 سنوات  06:00 صباحاً - 02:00 مساءً</t>
-  </si>
-  <si>
-    <t>تمهيدي  3 - 6 سنوات  07:30 صباحاً - 04:00 مساءً</t>
-  </si>
-  <si>
-    <t>رعاية نهارية  0 - 2 سنوات  06:00 صباحاً - 03:00 مساءً  رعاية نهارية  2 - 6 سنوات  06:00 صباحاً - 03:00 مساءً</t>
-  </si>
-  <si>
-    <t>تمهيدي  3 - 6 سنوات  06:30 صباحاً - 02:00 مساءً  روضة  3 - 6 سنوات  06:30 صباحاً - 02:00 مساءً  حضانة  0 - 3 سنوات  06:00 صباحاً - 03:00 مساءً</t>
-  </si>
-  <si>
-    <t>حضانة  0 - 3 سنوات  07:30 صباحاً - 12:00 مساءً  تمهيدي  3 - 6 سنوات  07:30 صباحاً - 12:00 مساءً</t>
-  </si>
-  <si>
-    <t>تمهيدي  3 - 6 سنوات  07:00 صباحاً - 12:00 مساءً  روضة  3 - 6 سنوات  07:30 صباحاً - 11:30 صباحاً  تمهيدي  3 - 6 سنوات  07:30 صباحاً - 11:30 صباحاً</t>
-  </si>
-  <si>
-    <t>رعاية نهارية  2 - 6 سنوات  07:30 صباحاً - 01:30 مساءً  رعاية نهارية  2 - 6 سنوات  01:30 مساءً - 07:00 مساءً  رعاية نهارية  2 - 6 سنوات  08:30 صباحاً - 01:30 مساءً</t>
-  </si>
-  <si>
-    <t>رعاية نهارية  0 - 2 سنوات  06:00 صباحاً - 01:00 مساءً  روضة  3 - 6 سنوات  06:00 صباحاً - 01:00 مساءً  حضانة  0 - 3 سنوات  06:00 صباحاً - 01:00 مساءً</t>
-  </si>
-  <si>
-    <t>رعاية نهارية  2 - 6 سنوات  06:00 صباحاً - 01:00 مساءً  تمهيدي  3 - 6 سنوات  06:30 صباحاً - 01:30 مساءً  رعاية نهارية  0 - 2 سنوات  12:00 صباحاً - 12:00 صباحاً</t>
-  </si>
-  <si>
-    <t>رعاية نهارية  2 - 6 سنوات  07:00 صباحاً - 08:00 مساءً  روضة  3 - 6 سنوات  06:00 صباحاً - 02:00 مساءً  حضانة  0 - 3 سنوات  06:00 صباحاً - 02:00 مساءً  تمهيدي  3 - 6 سنوات  06:00 صباحاً - 09:00 مساءً</t>
-  </si>
-  <si>
-    <t>روضة  3 - 6 سنوات  07:00 صباحاً - 01:30 مساءً  رعاية نهارية  6 - 10 سنوات  07:00 صباحاً - 02:00 مساءً  حضانة  0 - 3 سنوات  06:30 صباحاً - 02:30 مساءً  تمهيدي  3 - 6 سنوات  06:30 صباحاً - 01:00 مساءً  روضة  3 - 6 سنوات  07:00 صباحاً - 01:00 مساءً  حضانة  0 - 3 سنوات  07:00 صباحاً - 01:30 مساءً  حضانة  0 - 3 سنوات  07:00 صباحاً - 12:30 مساءً</t>
-  </si>
-  <si>
-    <t>حضانة  0 - 3 سنوات  06:30 صباحاً - 05:00 مساءً  حضانة  0 - 3 سنوات  06:30 صباحاً - 04:00 مساءً  تمهيدي  3 - 6 سنوات  06:30 صباحاً - 05:00 مساءً  تمهيدي  3 - 6 سنوات  06:30 صباحاً - 04:00 مساءً  تمهيدي  3 - 6 سنوات  06:30 صباحاً - 02:00 مساءً  روضة  3 - 6 سنوات  06:30 صباحاً - 04:00 مساءً  حضانة  0 - 3 سنوات  06:30 صباحاً - 03:00 مساءً  حضانة  0 - 3 سنوات  06:30 صباحاً - 02:00 مساءً  روضة  3 - 6 سنوات  06:30 صباحاً - 02:00 مساءً  روضة  3 - 6 سنوات  06:30 صباحاً - 03:00 مساءً  روضة  3 - 6 سنوات  06:30 صباحاً - 05:00 مساءً  تمهيدي  3 - 6 سنوات  06:30 صباحاً - 03:00 مساءً</t>
-  </si>
-  <si>
-    <t>تمهيدي  3 - 6 سنوات  07:00 صباحاً - 02:00 مساءً  تمهيدي  3 - 6 سنوات  07:00 صباحاً - 12:30 مساءً  روضة  3 - 6 سنوات  07:00 صباحاً - 02:00 مساءً  روضة  3 - 6 سنوات  07:00 صباحاً - 12:30 مساءً  حضانة  0 - 3 سنوات  07:00 صباحاً - 12:30 مساءً  حضانة  0 - 3 سنوات  07:00 صباحاً - 02:00 مساءً</t>
-  </si>
-  <si>
-    <t>رعاية نهارية  0 - 2 سنوات  07:00 صباحاً - 10:00 صباحاً  رعاية نهارية  2 - 6 سنوات  07:00 صباحاً - 09:00 صباحاً</t>
-  </si>
-  <si>
-    <t>روضة  3 - 6 سنوات  07:00 صباحاً - 11:30 صباحاً  حضانة  0 - 3 سنوات  06:00 صباحاً - 02:00 مساءً  تمهيدي  3 - 6 سنوات  07:00 صباحاً - 11:30 صباحاً</t>
-  </si>
-  <si>
-    <t>رعاية نهارية  6 - 10 سنوات  07:00 صباحاً - 10:00 مساءً  حضانة  0 - 3 سنوات  07:00 صباحاً - 10:00 مساءً  روضة  3 - 6 سنوات  07:00 صباحاً - 10:00 مساءً</t>
-  </si>
-  <si>
-    <t>روضة  3 - 6 سنوات  07:30 صباحاً - 01:30 مساءً  تمهيدي  3 - 6 سنوات  07:30 صباحاً - 01:30 مساءً</t>
-  </si>
-  <si>
-    <t>رعاية نهارية  2 - 6 سنوات  07:30 صباحاً - 02:30 مساءً</t>
-  </si>
-  <si>
-    <t>رعاية نهارية  2 - 6 سنوات  07:00 صباحاً - 08:00 مساءً  رعاية نهارية  0 - 2 سنوات  06:30 صباحاً - 10:00 مساءً  تمهيدي  3 - 6 سنوات  07:00 صباحاً - 11:30 صباحاً  روضة  3 - 6 سنوات  06:30 صباحاً - 10:30 مساءً  حضانة  0 - 3 سنوات  06:30 صباحاً - 11:00 مساءً  حضانة  0 - 3 سنوات  07:00 صباحاً - 12:30 مساءً</t>
-  </si>
-  <si>
-    <t>رعاية نهارية  0 - 2 سنوات  08:00 صباحاً - 07:00 مساءً  رعاية نهارية  2 - 6 سنوات  08:00 صباحاً - 08:00 مساءً</t>
-  </si>
-  <si>
-    <t>حضانة  0 - 3 سنوات  06:00 صباحاً - 11:30 مساءً  روضة  3 - 6 سنوات  07:00 صباحاً - 12:00 مساءً  تمهيدي  3 - 6 سنوات  07:00 صباحاً - 12:00 مساءً</t>
+    <t>مركز ضيافة أطف...</t>
+  </si>
+  <si>
+    <t>شركه اثراء الم...</t>
+  </si>
+  <si>
+    <t>تقدم المدرسة خ...</t>
+  </si>
+  <si>
+    <t>مركز اطفال اهل...</t>
+  </si>
+  <si>
+    <t>معتمد لدى وزار...</t>
+  </si>
+  <si>
+    <t>مركز ضيافه للا...</t>
+  </si>
+  <si>
+    <t>مركز استضافة أ...</t>
+  </si>
+  <si>
+    <t>مركز متطور على...</t>
+  </si>
+  <si>
+    <t>رؤيتنا تنشئة ا...</t>
+  </si>
+  <si>
+    <t>مركز لضيافة ال...</t>
+  </si>
+  <si>
+    <t>رعاية نهارية
+2...</t>
+  </si>
+  <si>
+    <t>رعاية نهارية
+0...</t>
+  </si>
+  <si>
+    <t>تمهيدي
+3 - 6 س...</t>
+  </si>
+  <si>
+    <t>حضانة
+0 - 3 سن...</t>
+  </si>
+  <si>
+    <t>رعاية نهارية
+6...</t>
+  </si>
+  <si>
+    <t>روضة
+3 - 6 سنو...</t>
   </si>
   <si>
     <t>مستقلة</t>
@@ -853,178 +787,152 @@
     <t>Time</t>
   </si>
   <si>
-    <t>مدارس التضامن الأهلية</t>
-  </si>
-  <si>
-    <t>مدارس الطموح الاول العالمية</t>
-  </si>
-  <si>
-    <t>مدارس الديار الرائدة الأهلية</t>
-  </si>
-  <si>
-    <t>مدرسة أنجال الثقافة الأهلية</t>
-  </si>
-  <si>
-    <t>مدارس رؤية البلاد العالمية</t>
-  </si>
-  <si>
-    <t>روضة براعم المشاعل</t>
-  </si>
-  <si>
-    <t>مدارس توافق الابداع الاهلية</t>
-  </si>
-  <si>
-    <t>المدرسة الأثيوبية العالمية</t>
-  </si>
-  <si>
-    <t>مدرسة السويدية العالمية</t>
-  </si>
-  <si>
-    <t>مدرسة بوابة العلم العالمية</t>
-  </si>
-  <si>
-    <t>الروضة الشاملة الأهلية</t>
-  </si>
-  <si>
-    <t>مدارس الأكاديمية الاهلية</t>
-  </si>
-  <si>
-    <t>مدارس أنجال الفكر الأهلية</t>
-  </si>
-  <si>
-    <t>مدارس النمو الاهلية</t>
-  </si>
-  <si>
-    <t>مدارس الحضارة الأهلية</t>
-  </si>
-  <si>
-    <t>مدارس رياض الانطلاقة -فرع الفلاح</t>
-  </si>
-  <si>
-    <t>Al fateh national Schools</t>
-  </si>
-  <si>
-    <t>مدرسة روضة الاطفال النموذجية الخاصة</t>
-  </si>
-  <si>
-    <t>مدارس الكون المطورة العالمية;</t>
-  </si>
-  <si>
-    <t>مدرسة بصمتي الصغيرة</t>
-  </si>
-  <si>
-    <t>مدارس رواد التربية الأهلية</t>
-  </si>
-  <si>
-    <t>مدرسه معرفة العبير الأهلية</t>
-  </si>
-  <si>
-    <t>مدارس صرح العلوم بالعقيق</t>
-  </si>
-  <si>
-    <t>مدرسة المبدعون العالمية</t>
-  </si>
-  <si>
-    <t>مدارس النخبة الأهلية - فرع الخليج</t>
-  </si>
-  <si>
-    <t>مدارس منارات جدة الأهلية</t>
-  </si>
-  <si>
-    <t>مدرسة حمد الجبر</t>
-  </si>
-  <si>
-    <t>مدرسة سدر العالمية</t>
-  </si>
-  <si>
-    <t>مدرسة البتول المسار المصري</t>
-  </si>
-  <si>
-    <t>عن المدسة  تقديم تعليم منافس بأبعاد تطبيقية وفقا لثوابت الأمة وتوجهات الوطن في بيئة جاذبة ومحفزة على التعلم بشراكة مجتمعية لجيل ينتج المعرفة.</t>
-  </si>
-  <si>
-    <t>عن المدسة  تقع مدارس الطموح الأول بشارع سعيد ابن زيد حى قرطبة بالرياض ،تأسست عام 1437، تدرس لطلابها بالمراحل التعليمية رياض أطفال ، إبتدائية .</t>
-  </si>
-  <si>
-    <t>عن المدسة  تقع مدارس الديار الرائدة الأهلية حى الجلوية بمدينةالدمام، المملكة العربية السعودية.تأسست المدرسة عام 1418  القيم التى تقدمها المدرسة :  المواطنة والمسؤولية: تعزيز الهوية الوطنية والمسؤولية الاجتماعية .  مبادئ وقيم الإسلام: التأكيد على القيم الإنسانية في الحوار والتسامح والاعتدال والسلام والعمل التطوعي .  الالتزام والشفافية: الالتزام بالمهنية والشفافية في الاداء .  المشاركة والمساءلة: الالتزام بالشراكة المجتمعية في العملية التربوية والمساءلة .    .تُدرس لطلابها بالمراحل التعليمية حضانة و إبتدائية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عن المدسة  تقع مدرسة أنجال الثقافة بحى الأجاويد بجدة ، المملكة العربية السعودية ، تأسست المدرسة عام 1437، تُدرس لطلابها بالمراحل التعليمية ابتدائية و متوسطة .   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عن المدسة  الرؤية:   تعليم ابتكاري لمجتمع معرفي ريادي عالمي.  الرسالة:   بناء وإدارة نظام تعليمي ابتكاري لمجتمع معرفي ذي تنافسية عالمية يشمل كافة المراحل العمرية ويلبي احتياجات سوق العمل المستقبلية وذلك من خلال ضمان جودة مخرجات وزارة التربية والتعليم وتقديم خدمات متميزة للمتعاملين الداخليين والخارجيين.   </t>
-  </si>
-  <si>
-    <t>عن المدسة  تقع مدرسة روضة المشاعل الدمام بحى الروضة ,شارع إبن سيرين ، تدرس لطلابها بالمراحل التعليمية الحضانة و الروضة ،المنهج التعليمى للمدرسة لا منهجية محددة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عن المدسة  تقدم المدرسة مجموعة متنوعة من الخدمات التي تدعم الطلاب ليس فقط على المستوى الأكاديمي، بل على مستوى النمو الاجتماعي والعاطفي وعلى المستوى الصحي أيضًا. وتتيح مدارس الفرسان لجميع الطلاب إمكانية طلب المساعدة في حل مشكلاتهم الشخصية أو الاجتماعية عن طريق الاتصال بأحد مستشاري المدرسة ومناقشة أفضل الاستراتيجيات التي تساعدهم في حل المشكلات   </t>
-  </si>
-  <si>
-    <t>عن المدسة  ،تقع مدرسه الاثيوبية بالرياض بحى المربع شارع حمد بن معمر تدرس لطلابها بجميع المراحل التعليمية ، المنهج المعتمد للمدرسة منهج بريطانى</t>
-  </si>
-  <si>
-    <t>عن المدسة  تقع مدرسة السويدية العالمية بشارع مجمع المملكة السكني بحى حي الربيع بمدينة الرياض، المملكة العربية السعودية. تأسست المدرسة عام 1977 ،تُدرس لطلابها بالمراحل التعليمية ابتدائية المنهج التعليمي للمدرسة يقوم على المنهج أمريكى بالإضافة الى المنهج الموضوع من قبل وزارة التعليم السعودية لمادتي اللغة العربية والتربية الإسلامية.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عن المدسة  إن تعزيز الشعور بالعمل الجماعي والتعاون وتعزيز الفروق الفردية سيكون طريقتنا التوجيهية لتعزيز مهارات الطلاب وتمكينهم من الوصول إلى إمكاناتهم الكاملة، فضلا عن أن يصبحوا مواطنين قيمين وناجحين في المستقبل.   </t>
-  </si>
-  <si>
-    <t>عن المدسة  تتيح المدرسة لجميع الطلاب إمكانية طلب المساعدة في حل مشكلاتهم الشخصية أو الاجتماعية عن طريق الاتصال بأحد مستشاري المدرسة ومناقشة أفضل الاستراتيجيات التي تساعدهم في حل المشكلات</t>
-  </si>
-  <si>
-    <t>عن المدسة  مدارس الأكاديمية الأهلية للبنين بالمملكة العربية السعودية، قامت على أسس متينة لبناء مدارس أهلية تُضاهي المدارس العالمية في الجوانب العلمية واللغة الإنجليزية، وتتميز في النواحي التربوية والدينية وقوة اللغة العربية والعناية بالقرآن الكريم، والبناء القويم للشخصية المسلمة.</t>
-  </si>
-  <si>
-    <t>عن المدسة   تقديم تعليم وتعلم عالى الجودة وفق المعايير العالمية، وتفعيل التكنولوجيا الحديثة، لإعداد متعلم متكامل الشخصية قادر على مواصلة التعلم مدى الحياة، يحقق أهداف المجتمع والوطن والأمة.</t>
-  </si>
-  <si>
-    <t>عن المدسة  تقع مدارس النمو الأهلية بطريق الملك عبدالعزيز حى الصحافة بالرياض ، تأسست عام 1427، تدرس لطلابها بجميع المراحل التعليمية الإبتدائية ، المتوسطة ، الثانوية</t>
-  </si>
-  <si>
-    <t>عن المدسة  مدرسة الحضارة الأهلية بحى الروابي بشارع الحريق بالرياض، تدرس لطلابها بجميع المراحل التعليمية الابتدائيةوالمتوسطة والثانوية ، المنهج التعليمى للمدرسة لا منهجية محددة</t>
-  </si>
-  <si>
-    <t>عن المدسة  المدرسة تقدم أفضل بيئة مدرسية وتربوية للتعليم ، ما يجعلها في طليعة المدارس الأهلية التي تقدّم خدمات تعليمية وتربوية في المملكة العربية السعودية . وتمتاز المدارس بموقعها الاستراتيجي</t>
-  </si>
-  <si>
-    <t>عن المدسة  تقع مدارس الفتح الأهلية بحى المروج بشارع تامر بالرياض،تدرس لطلابها بجميع المراحل التعليمية الابتدائيةوالمتوسطة والثانوية ، المنهج التعليمى للمدرسة لا منهجية محددة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عن المدسة  تقع مدرسة روضة الاطفال النموذجية الخاصة بحى بئر عثمان بشارع خديج بن سلامه بالمدينة المنورة . و تدرس لطلابها بجميع المراحل التعليمية الإبتدائية و المتوسطة والثانوية . المنهج التعليمى للمدرسة يقوم علي المنهج الأمريكى .  تسعى المدرسة في ظل الانفتاح المعرفي للقرن 21 الى تطوير بيئة خلاقة للطفل تدمج تطبيقات التقنية الذكية وتوظف اللغتين العربية والانجليزية بصورة متوازنة بهدف تنمية الطفل وتحفيز طاقاته نحو التفكير الحر والمبدع وتحقق له النمو الشامل والمتكامل الذي تتطلبه المرحلة العمرية التي يعيشها.     </t>
-  </si>
-  <si>
-    <t>عن المدسة  تستقبل مدارس الكون المطورة العالمية جميع المراحل الدراسية (رياض أطفال، الابتدائي، المتوسط، الثانوي) وتشمل قسم للبنين وآخر للبنات. وتعتمد مدارس الكون المطورة المنهج البريطاني كما تهتم باللغة العربية وتعاليم الدين الإسلامي، وتوفر أحدث تقنيات الوسائل التعليمية، وأساليب تعليمية على أعلى مستوى من الجودة، كما أنها تضم العديد من الكفاءات التدريسية التي تعمل على تأهيل طلبة متميزين ومبدعين أخلاقيا وعلميا.</t>
-  </si>
-  <si>
-    <t>عن المدسة  تستقبل المدرسة المراحل الدراسية التالية : حضانة . روضة  هذه المدرسة هي مدرسة أهلية تدرس المنهاج لا منهجية محددة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عن المدسة  أن نخُرج الطالب المؤمن بربه , المعتز بدينه , بقدرات علمية عالية , يملك مهارة التعلم الذاتي , بشخصية متزنة وسلوك راقٍ , مفكراً ومنتجاً بإبداع مهيئاً للحياة وسوق العمل .   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">عن المدسة  تقديم خدمة تربوية متميزة بمعايير عالمية و جودة شاملة في بيئة آمنة و جاذبة من خلال:  الاهتمام بجميع نواحي النمو للطالب فكريا,وسلوكيا,و نفسيا ,وصحيا, لممارسة ما يتعلمه في الحياة العملية   </t>
-  </si>
-  <si>
-    <t>عن المدسة  تقع مدارس صرح العلوم بشارع المعالي حى العقيق بالرياض ، تأسست عام 1428، تدرس لطلابها بالمراحل التعليمية الابتدائية ، المتوسطة</t>
-  </si>
-  <si>
-    <t>عن المدسة  تقع مدرسة المبدعون العالمية بحى الدار البيضاء بشارع الطويل بجده ،تدرس لطلابها بجميع المراحل التعليمية الابتدائيةوالمتوسطة والثانوية ، المنهج التعليمى للمدرسة يقوم علي منهج هندى</t>
-  </si>
-  <si>
-    <t>عن المدسة  مدارس النخبة الأهلية بحى الخليج, بمدينة الرياض، المملكة العربية السعودية. ،تُدرس لطلابها بجميع المراحل التعليمية</t>
-  </si>
-  <si>
-    <t xml:space="preserve">عن المدسة     تسعى المدرسة للأخذ بيد الطالب لاكتساب القيم الإسلامية والعالمية المشتركة , والمهارات والمعارف العلمية , ومهارات التفكير والاتصال والتواصل ؛ لإعداد طالب إيجابي مبدع بأفضل ما تسمح به قدراته , واضح الهدف , يدرك مسؤولياته وفق أولوياته المنظمة ليكون صالحا لنفسه وأسرته ومجتمعه ووطنه وأمته   </t>
-  </si>
-  <si>
-    <t>عن المدسة  تقع مدرسة حمد الجبر بحى الجزيرة بشارع خامس بالرياض ،تدرس لطلابها بجميع المراحل التعليمية الابتدائية والمتوسطة والثانوية ، المنهج التعليمى للمدرسة لا منهجية محددة</t>
-  </si>
-  <si>
-    <t>عن المدسة  تأسست مدرسة سدر العالمية عام 2005، تحت اشراف وزارة التربية والتعليم. وفتحت أبوابها لاستقبال الطلاب بجميع المراحل التعليمية للعام الدراسي 2005/2006. مدرسة سدر العالمية تدرس المنهج الأمريكي وهي حاصلة الاعتماد الأكاديمي هيAdvancED</t>
-  </si>
-  <si>
-    <t>عن المدسة  نسـعى إلى تـطوير بيئة تعلم جاذبة بمعلمين أكفاء .. يوظفون تقنية الاتصال الحديثة واستراتيجيات التعلم المتنوعة ليمارس خلالها الـطالب أنشطـة ممتعـة تعـزز القيم الأصيلة وتحـترم التـنـوع الثقافي لـبـنـاء شخـصـيته المتـكاملة بمـشاركة مجـتـمـعـيـة وفـق مـؤشـرات الـجـودة العالمية .</t>
+    <t>مدارس التضامن ...</t>
+  </si>
+  <si>
+    <t>مدارس الطموح ا...</t>
+  </si>
+  <si>
+    <t>مدارس الديار ا...</t>
+  </si>
+  <si>
+    <t>مدرسة أنجال ال...</t>
+  </si>
+  <si>
+    <t>مدارس رؤية الب...</t>
+  </si>
+  <si>
+    <t>روضة براعم الم...</t>
+  </si>
+  <si>
+    <t>مدارس توافق ال...</t>
+  </si>
+  <si>
+    <t>المدرسة الأثيو...</t>
+  </si>
+  <si>
+    <t>مدرسة السويدية...</t>
+  </si>
+  <si>
+    <t>مدرسة بوابة ال...</t>
+  </si>
+  <si>
+    <t>الروضة الشاملة...</t>
+  </si>
+  <si>
+    <t>مدارس الأكاديم...</t>
+  </si>
+  <si>
+    <t>مدارس النمو ال...</t>
+  </si>
+  <si>
+    <t>مدارس الحضارة ...</t>
+  </si>
+  <si>
+    <t>مدارس رياض الا...</t>
+  </si>
+  <si>
+    <t>Al fateh natio...</t>
+  </si>
+  <si>
+    <t>مدرسة روضة الا...</t>
+  </si>
+  <si>
+    <t>مدارس الكون ال...</t>
+  </si>
+  <si>
+    <t>مدرسة بصمتي ال...</t>
+  </si>
+  <si>
+    <t>مدارس رواد الت...</t>
+  </si>
+  <si>
+    <t>مدرسه معرفة ال...</t>
+  </si>
+  <si>
+    <t>مدارس صرح العل...</t>
+  </si>
+  <si>
+    <t>مدرسة المبدعون...</t>
+  </si>
+  <si>
+    <t>مدارس النخبة ا...</t>
+  </si>
+  <si>
+    <t>مدارس منارات ج...</t>
+  </si>
+  <si>
+    <t>مدرسة حمد الجب...</t>
+  </si>
+  <si>
+    <t>مدرسة سدر العا...</t>
+  </si>
+  <si>
+    <t>مدرسة البتول ا...</t>
+  </si>
+  <si>
+    <t>عن المدسة
+تقدي...</t>
+  </si>
+  <si>
+    <t>عن المدسة
+تقع ...</t>
+  </si>
+  <si>
+    <t>عن المدسة
+الرؤ...</t>
+  </si>
+  <si>
+    <t>عن المدسة
+تقدم...</t>
+  </si>
+  <si>
+    <t>عن المدسة
+،تقع...</t>
+  </si>
+  <si>
+    <t>عن المدسة
+إن ت...</t>
+  </si>
+  <si>
+    <t>عن المدسة
+تتيح...</t>
+  </si>
+  <si>
+    <t>عن المدسة
+مدار...</t>
+  </si>
+  <si>
+    <t>عن المدسة
+ تقد...</t>
+  </si>
+  <si>
+    <t>عن المدسة
+مدرس...</t>
+  </si>
+  <si>
+    <t>عن المدسة
+المد...</t>
+  </si>
+  <si>
+    <t>عن المدسة
+تستق...</t>
+  </si>
+  <si>
+    <t>عن المدسة
+أن ن...</t>
+  </si>
+  <si>
+    <t>عن المدسة
+ تس...</t>
+  </si>
+  <si>
+    <t>عن المدسة
+تأسس...</t>
+  </si>
+  <si>
+    <t>عن المدسة
+نسـع...</t>
   </si>
   <si>
     <t>أهلية</t>
@@ -1033,10 +941,10 @@
     <t>عالمية</t>
   </si>
   <si>
-    <t>التعليم الجامعي</t>
-  </si>
-  <si>
-    <t>التربية الخاصة</t>
+    <t>التعليم الجامع...</t>
+  </si>
+  <si>
+    <t>التربية الخاصة...</t>
   </si>
   <si>
     <t>عام</t>
@@ -1054,25 +962,13 @@
     <t>المسار المصرى</t>
   </si>
   <si>
-    <t>كل المراحل التعليمية</t>
-  </si>
-  <si>
-    <t>روضة (KG 1) - روضة 2 (KG 2) - تمهيدي (KG3) - أولى ابتدائي (Grade 1) - ثاني إبتدائي (Grade 2) - ثالث إبتدائي (Grade 3) - رابع ابتدائي (Grade 4) - خامس إبتدائي (Grade 5) - سادس ابتدائي (Grade 6)</t>
-  </si>
-  <si>
-    <t>أولى ابتدائي (Grade 1) - ثاني إبتدائي (Grade 2) - ثالث إبتدائي (Grade 3) - رابع ابتدائي (Grade 4) - خامس إبتدائي (Grade 5) - سادس ابتدائي (Grade 6) - أول متوسط (Grade 7) - ثاني متوسط (Grade 8)</t>
-  </si>
-  <si>
-    <t>روضة (KG 1) - روضة 2 (KG 2) - تمهيدي (KG3)</t>
-  </si>
-  <si>
-    <t>أولى ابتدائي (Grade 1) - ثاني إبتدائي (Grade 2) - ثالث إبتدائي (Grade 3) - رابع ابتدائي (Grade 4) - خامس إبتدائي (Grade 5) - سادس ابتدائي (Grade 6)</t>
-  </si>
-  <si>
-    <t>روضة (KG 1) - روضة 2 (KG 2) - تمهيدي (KG3) - أولى ابتدائي (Grade 1) - ثاني إبتدائي (Grade 2) - ثالث إبتدائي (Grade 3) - رابع ابتدائي (Grade 4) - خامس إبتدائي (Grade 5) - سادس ابتدائي (Grade 6) - أول متوسط (Grade 7) - ثاني متوسط (Grade 8)</t>
-  </si>
-  <si>
-    <t>روضة (KG 1) - روضة 2 (KG 2) - تمهيدي (KG3) - أولى ابتدائي (Grade 1) - ثاني إبتدائي (Grade 2) - ثالث إبتدائي (Grade 3)</t>
+    <t>كل المراحل الت...</t>
+  </si>
+  <si>
+    <t>روضة (KG 1) - ...</t>
+  </si>
+  <si>
+    <t>أولى ابتدائي (...</t>
   </si>
   <si>
     <t>مشتركة</t>
@@ -1186,91 +1082,91 @@
     <t>+966125443760</t>
   </si>
   <si>
-    <t>tadamon@msc.edu.s</t>
-  </si>
-  <si>
-    <t>tmoh11@yahoo.com</t>
-  </si>
-  <si>
-    <t>ediarelraeda@app.com</t>
-  </si>
-  <si>
-    <t>angalelthkafa@app.com</t>
-  </si>
-  <si>
-    <t>register.cvis1@gmail.com</t>
-  </si>
-  <si>
-    <t>almashaelkgr@gmail.com</t>
-  </si>
-  <si>
-    <t>twafaq_alebd7777aa@hotmail.com</t>
-  </si>
-  <si>
-    <t>athya@yahoo.com</t>
-  </si>
-  <si>
-    <t>elsweedy@app.com</t>
-  </si>
-  <si>
-    <t>egate.teachers@gmail.com</t>
-  </si>
-  <si>
-    <t>rawda@yahoo.com</t>
-  </si>
-  <si>
-    <t>cv4sch2@gmail.com</t>
-  </si>
-  <si>
-    <t>angalelfekr@app.com</t>
+    <t>tadamon@msc.ed...</t>
+  </si>
+  <si>
+    <t>tmoh11@yahoo.c...</t>
+  </si>
+  <si>
+    <t>ediarelraeda@a...</t>
+  </si>
+  <si>
+    <t>angalelthkafa@...</t>
+  </si>
+  <si>
+    <t>register.cvis1...</t>
+  </si>
+  <si>
+    <t>almashaelkgr@g...</t>
+  </si>
+  <si>
+    <t>twafaq_alebd77...</t>
+  </si>
+  <si>
+    <t>athya@yahoo.co...</t>
+  </si>
+  <si>
+    <t>elsweedy@app.c...</t>
+  </si>
+  <si>
+    <t>egate.teachers...</t>
+  </si>
+  <si>
+    <t>rawda@yahoo.co...</t>
+  </si>
+  <si>
+    <t>cv4sch2@gmail....</t>
+  </si>
+  <si>
+    <t>angalelfekr@ap...</t>
   </si>
   <si>
     <t>nmw@yahoo.com</t>
   </si>
   <si>
-    <t>hdara@yahoo.com</t>
-  </si>
-  <si>
-    <t>reyadelent@app.com</t>
-  </si>
-  <si>
-    <t>alfateh@yahoo.com</t>
-  </si>
-  <si>
-    <t>rawdahchcv@app.com</t>
-  </si>
-  <si>
-    <t>kmis-1school@hotmail.com</t>
-  </si>
-  <si>
-    <t>my.little.print.kg@gmail.com</t>
-  </si>
-  <si>
-    <t>rowad-t@qimamelhayattt.com</t>
-  </si>
-  <si>
-    <t>abeermaarfa@app.com</t>
-  </si>
-  <si>
-    <t>elaloom@yahoo.com</t>
-  </si>
-  <si>
-    <t>info@novelschools.com</t>
-  </si>
-  <si>
-    <t>nokhbah@app.com</t>
-  </si>
-  <si>
-    <t>mnaratgadah1@app.com</t>
+    <t>hdara@yahoo.co...</t>
+  </si>
+  <si>
+    <t>reyadelent@app...</t>
+  </si>
+  <si>
+    <t>alfateh@yahoo....</t>
+  </si>
+  <si>
+    <t>rawdahchcv@app...</t>
+  </si>
+  <si>
+    <t>kmis-1school@h...</t>
+  </si>
+  <si>
+    <t>my.little.prin...</t>
+  </si>
+  <si>
+    <t>rowad-t@qimame...</t>
+  </si>
+  <si>
+    <t>abeermaarfa@ap...</t>
+  </si>
+  <si>
+    <t>elaloom@yahoo....</t>
+  </si>
+  <si>
+    <t>info@novelscho...</t>
+  </si>
+  <si>
+    <t>nokhbah@app.co...</t>
+  </si>
+  <si>
+    <t>mnaratgadah1@a...</t>
   </si>
   <si>
     <t>hmd@yahoo.com</t>
   </si>
   <si>
-    <t>c_i_s_jeddah1@gmail.com</t>
-  </si>
-  <si>
-    <t>bsm_ad_2013yttf@hotmail.com</t>
+    <t>c_i_s_jeddah1@...</t>
+  </si>
+  <si>
+    <t>bsm_ad_2013ytt...</t>
   </si>
   <si>
     <t>عليشه- الرياض</t>
@@ -1315,7 +1211,7 @@
     <t>الروابى</t>
   </si>
   <si>
-    <t>الفلاح = الرياض</t>
+    <t>الفلاح = الريا...</t>
   </si>
   <si>
     <t>المروج</t>
@@ -1360,22 +1256,16 @@
     <t>مكة</t>
   </si>
   <si>
-    <t>الفترة الصباحية 8 am - 1pm الفترة المسائية 5:30 pm - 9 pm</t>
-  </si>
-  <si>
-    <t>الفترة الصباحية : 7:30 ص الى 1:00 م</t>
-  </si>
-  <si>
-    <t>الفترة الصباحية من 7 ص الى 12:30 ظ الفترة المسائية من 6:30 م الى 9:00 م</t>
-  </si>
-  <si>
-    <t>7:30 ص الى 1:00 م</t>
-  </si>
-  <si>
-    <t>9:00صباحا -5:00 مساء ص</t>
-  </si>
-  <si>
-    <t>8:00 صباحا - 1:00 ظهرا</t>
+    <t>الفترة الصباحي...</t>
+  </si>
+  <si>
+    <t>7:30 ص الى 1:0...</t>
+  </si>
+  <si>
+    <t>9:00صباحا -5:0...</t>
+  </si>
+  <si>
+    <t>8:00 صباحا - 1...</t>
   </si>
   <si>
     <t>School Name</t>
@@ -1402,178 +1292,169 @@
     <t>Price</t>
   </si>
   <si>
-    <t xml:space="preserve">مدرسة ندوة الشرق الأهلية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدرسة قدراتي العالمية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ثانوية الوادى الاهلية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدرسة شروق المملكة العالمية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدارس رياض الايمان الاهلية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدرسة أنجال الزلفي الأولي </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدرسة الفخامة العالمية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">التربية الرقمية الاهلية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدارس الخنساء الأهلية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدرسة مصابيح المجد الأهلية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدارس الخطوة الأهلية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">روضة ضياء التفكير الاهلية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدرسة القراءات النموذجية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدارس التربية والتعليم الأهلية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدرسة العمرية الأهلية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدارس بنات الغد الأهلية  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدرسة الحديثة العالمية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">روضة التعليم الأول </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدرسة الصحافة العالمية  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدرسة الخلود المثالية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدرسة فرسان العلم الأهلية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدارس الكون المطورة العالمية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدرسة أبناء الريادة الأهلية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدارس الاكاديمية العصرية الأهلية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدارس براعم حائل الأهلية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدرسة محمد الفاتح الأهلية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدرسة الجيل الاهلية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدرسة العلا العربية الأهلية </t>
-  </si>
-  <si>
-    <t xml:space="preserve">مدارس جلوبال العالمية الحديثة </t>
-  </si>
-  <si>
-    <t>الرياض حي النظيم</t>
-  </si>
-  <si>
-    <t>الرياض حي المرسلات</t>
-  </si>
-  <si>
-    <t>الرياض حي الوادي</t>
-  </si>
-  <si>
-    <t>الطائف حي عودة</t>
-  </si>
-  <si>
-    <t>الخبر حي العليا</t>
-  </si>
-  <si>
-    <t>الرياض حي الزلفي</t>
+    <t>مدرسة ندوة الش...</t>
+  </si>
+  <si>
+    <t>مدرسة قدراتي ا...</t>
+  </si>
+  <si>
+    <t>ثانوية الوادى ...</t>
+  </si>
+  <si>
+    <t>مدرسة شروق الم...</t>
+  </si>
+  <si>
+    <t>مدرسة الفخامة ...</t>
+  </si>
+  <si>
+    <t>التربية الرقمي...</t>
+  </si>
+  <si>
+    <t>مدارس الخنساء ...</t>
+  </si>
+  <si>
+    <t>مدرسة مصابيح ا...</t>
+  </si>
+  <si>
+    <t>مدارس الخطوة ا...</t>
+  </si>
+  <si>
+    <t>روضة ضياء التف...</t>
+  </si>
+  <si>
+    <t>مدرسة القراءات...</t>
+  </si>
+  <si>
+    <t>مدارس التربية ...</t>
+  </si>
+  <si>
+    <t>مدرسة العمرية ...</t>
+  </si>
+  <si>
+    <t>مدارس بنات الغ...</t>
+  </si>
+  <si>
+    <t>مدرسة الحديثة ...</t>
+  </si>
+  <si>
+    <t>روضة التعليم ا...</t>
+  </si>
+  <si>
+    <t>مدرسة الصحافة ...</t>
+  </si>
+  <si>
+    <t>مدرسة الخلود ا...</t>
+  </si>
+  <si>
+    <t>مدرسة فرسان ال...</t>
+  </si>
+  <si>
+    <t>مدرسة أبناء ال...</t>
+  </si>
+  <si>
+    <t>مدارس الاكاديم...</t>
+  </si>
+  <si>
+    <t>مدارس براعم حا...</t>
+  </si>
+  <si>
+    <t>مدرسة محمد الف...</t>
+  </si>
+  <si>
+    <t>مدرسة الجيل ال...</t>
+  </si>
+  <si>
+    <t>مدرسة العلا ال...</t>
+  </si>
+  <si>
+    <t>مدارس جلوبال ا...</t>
+  </si>
+  <si>
+    <t>الرياض حي النظ...</t>
+  </si>
+  <si>
+    <t>الرياض حي المر...</t>
+  </si>
+  <si>
+    <t>الرياض حي الوا...</t>
+  </si>
+  <si>
+    <t>الطائف حي عودة...</t>
+  </si>
+  <si>
+    <t>الخبر حي العلي...</t>
+  </si>
+  <si>
+    <t>الرياض حي الزل...</t>
   </si>
   <si>
     <t>جدة حي الروضة</t>
   </si>
   <si>
-    <t>الرياض حي طويق</t>
-  </si>
-  <si>
-    <t>جدة حي العزيزية</t>
-  </si>
-  <si>
-    <t>مكة حي الشوقية</t>
-  </si>
-  <si>
-    <t>الرياض حي الصحافة</t>
-  </si>
-  <si>
-    <t>جدة حي الأمير فواز الجنوبى</t>
-  </si>
-  <si>
-    <t>جدة حي السليمانية</t>
-  </si>
-  <si>
-    <t>الدمام حي الجامعيين</t>
-  </si>
-  <si>
-    <t>الجوف حي سكاكا</t>
-  </si>
-  <si>
-    <t>عرعر حي الناصرية</t>
-  </si>
-  <si>
-    <t>الرياض حي الخالدية</t>
+    <t>الرياض حي طويق...</t>
+  </si>
+  <si>
+    <t>جدة حي العزيزي...</t>
+  </si>
+  <si>
+    <t>مكة حي الشوقية...</t>
+  </si>
+  <si>
+    <t>الرياض حي الصح...</t>
+  </si>
+  <si>
+    <t>جدة حي الأمير ...</t>
+  </si>
+  <si>
+    <t>جدة حي السليما...</t>
+  </si>
+  <si>
+    <t>الدمام حي الجا...</t>
+  </si>
+  <si>
+    <t>الجوف حي سكاكا...</t>
+  </si>
+  <si>
+    <t>عرعر حي الناصر...</t>
+  </si>
+  <si>
+    <t>الرياض حي الخا...</t>
   </si>
   <si>
     <t>جدة حي النزهة</t>
   </si>
   <si>
-    <t>الرياض حي السليمانية</t>
+    <t>الرياض حي السل...</t>
   </si>
   <si>
     <t>جدة حي الرحاب</t>
   </si>
   <si>
-    <t>الخرج حي النزهة</t>
-  </si>
-  <si>
-    <t>جدة حي الحمراء</t>
+    <t>الخرج حي النزه...</t>
+  </si>
+  <si>
+    <t>جدة حي الحمراء...</t>
   </si>
   <si>
     <t>عسير حي ابها</t>
   </si>
   <si>
-    <t>حفر الباطن حي المحمدية</t>
-  </si>
-  <si>
-    <t>حائل حي الزبارة</t>
+    <t>حفر الباطن حي ...</t>
+  </si>
+  <si>
+    <t>حائل حي الزبار...</t>
   </si>
   <si>
     <t>الدمام حي أحد</t>
   </si>
   <si>
-    <t>الرياض حي البديعة</t>
-  </si>
-  <si>
-    <t>الرياض حي الحزم</t>
-  </si>
-  <si>
-    <t>الرياض حي قرطبه</t>
+    <t>الرياض حي البد...</t>
+  </si>
+  <si>
+    <t>الرياض حي الحز...</t>
+  </si>
+  <si>
+    <t>الرياض حي قرطب...</t>
   </si>
   <si>
     <t>الطائف</t>
@@ -1609,13 +1490,13 @@
     <t>أهلي</t>
   </si>
   <si>
-    <t xml:space="preserve"> المسار المصرى</t>
+    <t xml:space="preserve"> المسار المصرى...</t>
   </si>
   <si>
     <t xml:space="preserve"> بريطاني</t>
   </si>
   <si>
-    <t>حضانة و إبتدائية</t>
+    <t>حضانة و إبتدائ...</t>
   </si>
   <si>
     <t>حضانة - روضة</t>
@@ -1627,10 +1508,7 @@
     <t>جميع المراحل</t>
   </si>
   <si>
-    <t>حضانة - روضة - ابتدائى - متوسط</t>
-  </si>
-  <si>
-    <t>حضانة - روضة - ابتدائى</t>
+    <t>حضانة - روضة -...</t>
   </si>
   <si>
     <t>بنين</t>
@@ -1642,76 +1520,67 @@
     <t>بنين و بنات</t>
   </si>
   <si>
-    <t>تقع روضة قدراتى العالمية بشارع الجامع الأزهر حى المرسلات بالرياض ، تأسست المدرسة 1436، تدرس لطلابها بمرحله رياض الأطفال .</t>
-  </si>
-  <si>
-    <t>تم تأسيس مدرسة الشروق الدولية التي كانت تعرف سابقا باسم مدرسة الرحمة الدولية في 3 أكتوبر 2003. وقد أنشئت هذه المدرسة لضمان توفير التعليم الجيد للفلبينيين وكذلك للجنسيات الأخرى المقيمة في الطائف. وقد منحت رخصة مؤقتة، رقم 004، ق في 2006 من قبل إدارة التعليم الفلبينية في 6 يونيو 2006. مدرسة الشروق الدولية تدير برنامجا لمرحلة ما قبل المدرسة، المرحلة الابتدائية والثانوية.  رسالة مدرسة شروق المملكة العالمية :  1-السعي لتحقيق التميز في جميع جوانب الحياة المدرسية 2-توظيف أفضل المعلمين المؤهلين والمتميزين 3-اختيار أساليب التدريس المناسبة والمواد المناسبة, و وذلك باستخدام قاعات دراسية مجهزة تجهيزا كاملا ومرافق مدرسية أخرى.  أهداف مدرسة شروق المملكة العالمية : 1- توفير بيئة ينجح فيها جميع الافراد .  2- توفير مركز للتعلم للطلاب و الموظفين و المجتمع المحلي . 3- توفير منهج امن و محفز لجميع الطلاب, و الذي يتضمن المعرفة و المهارات و المواقف التي من شأنها ان تساعد علي اعدادهم للفرص و المسئوليات و الخبرات في الحياه, و التشجيع علي الانضباط الذاتي و احترام الذات لدي افراد المجتمع و تعزيز الاحترام للاخرين .  و تقع مدرسة شروق المملكة العالمية في  حى عودة  بمدينة الطائف بالمملكة العربية السعودية .</t>
-  </si>
-  <si>
-    <t>هدفنا أن يكون تطوير الطلاب وتوجيههم محور تركيز المعلمين والإداريين بالمدارس الأول. المزيد .... مشاركة مدرسة رياض الإيمان المرحلة المتوسطة في مسابقة توعية تك.تأسست مدارس رياض الإيمان الأهلية بالخبر وذلك للإرتقاء بالمستوى التربوي والتعليمي والثقافي لأبناء هذا الوطن، حيث تطلع نخبة من المعلمات إلى تنشئة جيل مبدع وواع فكريا ومتميز أخلاقيا وعلميا. وحين تحقق الأمل وذاع صيت مدارسنا في أنحاء مدينة الخبر تم افتتاح قسم البنين وبذلك أصبحت مدارسنا صرحا متكاملا للعلم والمعرفة وحصنا منيعا للأخلاق والدين من خلال تربية النشيء تربية إسلامية تقوم على الوسطية في أمور دينهم ودنياهم، ولم تغفل المدارس مواكبة التطورات العلمية والعصرية باضافة مناهج وبرامج اضافية إثرائية لجميع المراحل الدراسية. كما أتاحت مدارسنا لجميع طلابها ممارسة كافة أنواع الأنشطة الطلابية عن طريق البرامج التربوية والترفيهية لتنمية المهارات الحياتية لديهم. وبذلك حصلت المدارس على أفضل المراكز على مستوى المنطقة الشرقية.</t>
-  </si>
-  <si>
-    <t>تقع مدرسة الفخامة العالمية بحى الروضة بشارع احمد زكى بجده وتدرس لطلابها بجميع المراحل التعليمية والابتدائية و المتوسطة والثانوية</t>
-  </si>
-  <si>
-    <t>تقع مدارس التربية الرقمية الأهليه بشارع علي البغدادي حى طويق بالرياض ، تأسست عام 1435، تدرس لطلابها بجميع المراحل التعليمية الإبتدائية ،المتوسطة،الثانوية.</t>
-  </si>
-  <si>
-    <t>مدارس الخطوة الأهلية بحى الصحافة بالرياض ،تدرس لطلابها بمرحلة التعليمية الابتدائية ،المنهج التعليمى للمدرسة لا منهجية محددة</t>
-  </si>
-  <si>
-    <t>روضة ضياء التفكير الأهلية.معتمدة من وزارة التربية والتعليم" نطمح أن نبني جيلاً مختلف"✨رياض أطفال - ابتدائي ❤️</t>
-  </si>
-  <si>
-    <t>تقع مدارس التربية والتعليم الأهلية حى الجامعيين بمدينةالدمام، المملكة العربية السعودية.تُدرس لطلابها بجميع المراحل التعليمية المنهج التعليمي المسار المصري</t>
-  </si>
-  <si>
-    <t>تقع مدرسة العمرية الأهلية سكاكا بالجوف ، المملكة العربية السعودية. ،تُدرس لطلابها بجميع المراحل التعليمية  تأسست في 1421 هـ , أطلق اسمها على اسم الفاروق عمر بن الخطاب تيمنا به , لينشأ أبناؤها على النهج الصحيح والمنهج القويم كما كان عليه الأئمة الأولين حائزة على جائزة التميز الوزاريةعلى مستوى المملكة في مراحلها الثلاثصرحٌ تعليميٌ متكاملٌ يجمع ما بين التقنية العالية والتكنولوجيا الحديثة، والأساليب التعليمية والتربوية الأصيلة العريقة، تهتم بإبراز المواهب وتنمية القدرات ولا ينسى المتعة والنشاط.صرحٌ يولي اهتمامًا خاصًا بالعملية التعليمية والأكاديمية، واهتمامًا مميزًا للنشاط والمرح دون إفراط أو تفريط، يضم مجموعة رائعة وكوكبة نادرة من الكوادر البشرية المدربة على أحدث أساليب التعلم الحديثة.صرحٌ يديره ويشرف عليه خبراء تربويون ومشرفون بارزون، أسماء لامعة ونجومٌ ساطعة في سماء التعليم. في مدارس العمرية الأهلية تجد.. أصالة الماضي وإشراقة الحاضر، وتطلعات المستقبل.</t>
-  </si>
-  <si>
-    <t>تقع مدرسة الحديثة العالمية بالرياض بالرياض حى الخالديةبشارع الخليفة المأمون ، تأسست عام 1430، تدرس لطلابها بالمراحل التعليمية الابتدائية و الحضانة .</t>
-  </si>
-  <si>
-    <t>تقع مدرسة الصحافة العالمية بحى السليمانية بالرياض ، و تدرس لطلابها بجميع المراحل التعليمية الابتدائيه و المتوسطة و الثانوية ،المنهج التعليمى للمدرسة يقوم علي المنهج الأمريكى .</t>
-  </si>
-  <si>
-    <t>تقع مدرسة فرسان العلم الأهلية بشارع الامام مالك بن انس حى النزهة بمدينة الخرج ،المملكة العربية السعودية ،،تُدرس لطلابها بجميع بالمراحل التعليمية .</t>
-  </si>
-  <si>
-    <t>تستقبل مدارس الكون المطورة العالمية جميع المراحل الدراسية (رياض أطفال، الابتدائي، المتوسط، الثانوي) وتشمل قسم للبنين وآخر للبنات. وتعتمد مدارس الكون المطورة المنهج البريطاني كما تهتم باللغة العربية وتعاليم الدين الإسلامي، وتوفر أحدث تقنيات الوسائل التعليمية، وأساليب تعليمية على أعلى مستوى من الجودة، كما أنها تضم العديد من الكفاءات التدريسية التي تعمل على تأهيل طلبة متميزين ومبدعين أخلاقيا وعلميا.تجهيزات وأنشطة المدرسة تم تجهيز المدارس بأحدث التجهيزات التعليمية من مختبرات علمية ومختبرات للحاسوب ومكتبات مدرسية. كما تهتم المدرسة بتوفير أنشطة متنوعة للطلاب.تقع مدارس الكون المطورة العالمية في مدينة جده بحي الحمراء.</t>
-  </si>
-  <si>
-    <t>تقع مدرسة ابناء الريادة الاهلية بأبها منطقة عسير، المملكة العربية السعودية. ،تُدرس لطلابها مرحلة الطفولة المبكرة روضة بمنهج المنتيسوري ،ابتدائي صفوف أولية. بنين _ بنات المنهج التعليمي للمدرسة يقوم على المنهج الوطني - قسم التربية الخاصةمستقل توحد- نطق وتخاطب - ة .</t>
-  </si>
-  <si>
-    <t>مجموعة مدارس و معاهد الأكاديمية العصرية هى مجموعة تعليمية منذ عام 1424 هـ تُسهم فى تطوير العملية التعليمية بالمملكة العربية السعودية و خلال 17 عام ساهمنا فى تخريج أجيال عملت على خدمة المجتمع و الرقي به تتكون المجموعة من : أولاٌ : مدارس البنين بجميع مراحله ( ابتدائي / متوسط - ثانوي ) ثانيا : قسم البنات _حضانة - روضة - ابتدائي - متوسط - ثانوي - كبيرات ) ثالثا : معهد العصرية العالي النسائي للتدريب خلال عام 1438/1437هـ توجت المدرسة بالحصول على جائزتي التعليم للتميز على مستوى المملكة جائزة التعليم للتميز فئة المعلم و جائز التعليم للتميز فئة المرشد الطلابيالرؤية لمدارس الأكاديمية العصرية :أن تكون مدارسنا الأولى في بناء جيل مبدع متميز قادر على مواكبة تحديات المستقبل.الرسالة :تلتزم مدارسنا بتقديم خدمة تربوية ذات جودة عالية، وإعداد طلابها وطالباتها بالمعارف والقيم الإسلامية التي تمكنهم من الإبداع والتميز الأكاديمي لمواكبة تحديات المستقبل والتعلم مدى الحياة، من خلال قيادة ملهمة وهيئة تعليمية متميزة تستخدم أحدث استراتيجيات التعليم والمناهج والأنشطة والتقنيات الحديثة، وبيئة تعلم جاذبة وآمنة، ومناخ مدرسي تعاوني والتواصل الفعال مع أولياء الأمور والمجتمع المحليالأهداف :الإسهام الفاعل في رفع المستوى العلمي والتربوي لبناء جيل متفوق يسهم في بناء المجتمع.بلورة المواهب والمهارات للتلاميذ وتوفير فرص تثمينها بما ينعكس إيجابياً على العملية التربوية.إعانة أولياء أمور التلاميذ على تحقيق أهداف تعود بالنفع المستقبلي على أبنائهم.الوصول بالمستوى العام للمؤسسة إلى مستوى راقٍ تربوياً وعلمياً.تطوير عمل المرشد التربوي في ممارسة كامل مسؤولياته لمتابعة جميع مشاكل التلاميذ الشخصية والعمل على وضع الحلول المذلله لها من خلال الاتصال بالأهل والمعلمين المعنيين والمفاصل ذات العلاقة بالتلاميذ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> تقع مدارس براعم حائل الأهلية حى الزبارة بمدينة حائل ، المملكة العربية السعودية.،تُدرس لطلابها بالمراحل التعليمية حضانة -روضة</t>
-  </si>
-  <si>
-    <t>لما كان التعليم هو ركيزة النهضة و التقدم لأي أمة من الأمم و لما كانت العملية التعليمية التربوية لا تقع على عاتق المدرسة وحدها بل لابد من التواصل الدائم الخلاق بين المنزل و المدرسة وبين التلميذ و المعلم لا في ساعات الدراسة وحدها وإنما في كل وقت يشعر التلميذ بحاجته إلى المعلم ويشعر فيه المعلم بحاجته إلى الأسرة من أجل النهوض بمستوى أبنائنا . لذا كان لابد من تحقيق هذا التواصل و هنا تبرز الحاجة إلى التواصل الإلكتروني حيث أنه من أسرع وسائل الاتصال و التفاعل في هذا العصر . وحتى يستمر تدفق نهر العطاء ، وينساب ماؤه سلسلا نميرا يتدفق علما و أوبا و حكمة .فقد حرصنا على أن نمتطي صهوة كل جديد ، ما دام يحقق ما تصبوا إليه من نفع و تقدم ، فقد قمنا بتدشين الموقع الإلكتروني لمدرسة الفاتح آملين من جميع الطلاب و من أولياء الأمور التواصل و التفاعل الخلاق معنا من أجل تحقيق رسالتنا السامية.</t>
-  </si>
-  <si>
-    <t>تقع مدرسة الجيل الخاصة بحى البديعة بالرياض ،تدرس لطلابها بجميع المراحل التعليمية الابتدائية والمتوسطة والثانوية ، المنهج التعليمى للمدرسة لا منهجية محددة</t>
-  </si>
-  <si>
-    <t>رؤية مدرسة العلا العربية:بناء جيل واعد يحقق طموحه ويبني وطنه ويثبت نفسه كل يوم</t>
-  </si>
-  <si>
-    <t>تقع المدارس ضمن مجمّع سوليدير السكني في حي قرطبة والذي يعد أحد أرقى وأحدث المجمعات السكنية في الرياض من حيث التجهيزات والمسطحات في البداية، ستشمل المدارس المراحل التعليمية « الحضانات ، رياض الاطفال والمرحلة الابتدائية « فقط للتأكد من إنشاء طالب ذوي مستوى أكاديمي رفيع يمكنهم من الترفّع الى المراحل المتوسطة والثانوية في السنين القادمة التي سيتم إفتتاحها تباعا للذكور والاناث. تلتزم المدارس بتطبيق أعلى المعايير الأكاديمية المعتمدة عالميا بالتعاون مع مشغّل عالمي ذو باع طويل في تشغيل مدارس مشابه في الولايات المتحدة الأمريكية. كما تسعى إلى تنمية بيئة حاضنة يمكن للطالب من خلالها النمو والاستكشاف من خلال التعليم المرتكز على الطالب ودع التفوق الذاتي المتميز من خال أساليب تعليم لا ترتكز على التلقين انما على البحث والاستكشاف وتطوير المهارات النظرية والتطبيقية.</t>
-  </si>
-  <si>
-    <t>وفاء عبد العزيز عبد الرحمن الصحاف  0555100010</t>
-  </si>
-  <si>
-    <t>دلال حسن غانم طويل جميع المراحل  966500500461 dlltawil@yahoo.com</t>
-  </si>
-  <si>
-    <t>زينات نالا كام جميع المراحل  0507538670</t>
-  </si>
-  <si>
-    <t>المرحلة الابتدائية  جميع المراحل  0115480326   المرحلة الإعدادية  جميع المراحل  0115484671   المرحلة الثانوية  جميع المراحل  0115484671   رياض الأطفال  جميع المراحل  0115448654</t>
+    <t>تقع روضة قدرات...</t>
+  </si>
+  <si>
+    <t>تم تأسيس مدرسة...</t>
+  </si>
+  <si>
+    <t>هدفنا أن يكون ...</t>
+  </si>
+  <si>
+    <t>تقع مدرسة الفخ...</t>
+  </si>
+  <si>
+    <t>تقع مدارس التر...</t>
+  </si>
+  <si>
+    <t>تقع مدرسة العم...</t>
+  </si>
+  <si>
+    <t>تقع مدرسة الحد...</t>
+  </si>
+  <si>
+    <t>تقع مدرسة الصح...</t>
+  </si>
+  <si>
+    <t>تقع مدرسة فرسا...</t>
+  </si>
+  <si>
+    <t>تستقبل مدارس ا...</t>
+  </si>
+  <si>
+    <t>تقع مدرسة ابنا...</t>
+  </si>
+  <si>
+    <t>مجموعة مدارس و...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> تقع مدارس برا...</t>
+  </si>
+  <si>
+    <t>لما كان التعلي...</t>
+  </si>
+  <si>
+    <t>تقع مدرسة الجي...</t>
+  </si>
+  <si>
+    <t>رؤية مدرسة الع...</t>
+  </si>
+  <si>
+    <t>تقع المدارس ضم...</t>
+  </si>
+  <si>
+    <t>وفاء عبد العزي...</t>
+  </si>
+  <si>
+    <t>دلال حسن غانم ...</t>
+  </si>
+  <si>
+    <t>زينات نالا كام...</t>
+  </si>
+  <si>
+    <t>المرحلة الابتد...</t>
   </si>
   <si>
     <t>+966555100010</t>
@@ -1726,7 +1595,7 @@
     <t>+966115448654</t>
   </si>
   <si>
-    <t>dlltawil@yahoo.com</t>
+    <t>dlltawil@yahoo...</t>
   </si>
   <si>
     <t>2.8</t>
@@ -1795,46 +1664,8 @@
     <t>3 ولي امر</t>
   </si>
   <si>
-    <t>الرسوم   عند الحجز، يمكنك دفع الرسوم الدراسية بالتقسيط حتى 60000 ريال على 12 شهر مع    احجز الان    جديد  عام الصف الرسوم للبنات متاحة للحجز روضة 1 (KG 1) 22,000 ر.س   متاحة  روضة 2 (KG 2) 22,000 ر.س   متاحة  تمهيدي (KG 3) 22,000 ر.س   متاحة</t>
-  </si>
-  <si>
-    <t>الرسوم   عند الحجز، يمكنك دفع الرسوم الدراسية بالتقسيط حتى 60000 ريال على 12 شهر مع    احجز الان    جديد  عام الصف الرسوم للبنين الرسوم للبنات متاحة للحجز روضة 1 (KG 1) 13,000 ر.س 13,000 ر.س   متاحة  روضة 2 (KG 2) 13,000 ر.س 13,000 ر.س   متاحة  تمهيدي (KG 3) 13,000 ر.س 13,000 ر.س   متاحة  أول إبتدائي (Grade 1) 14,000 ر.س 14,000 ر.س   متاحة  ثاني إبتدائي (Grade 2) 14,000 ر.س 14,000 ر.س   متاحة  ثالث إبتدائي (Grade 3) 14,000 ر.س 14,000 ر.س   متاحة  رابع إبتدائي (Grade 4) 14,000 ر.س 14,000 ر.س   متاحة  خامس إبتدائي (Grade 5) 14,000 ر.س 14,000 ر.س   متاحة  سادس إبتدائي (Grade 6) 14,000 ر.س 14,000 ر.س   متاحة  أول متوسط (Grade 7) 16,000 ر.س 16,000 ر.س   متاحة  ثاني متوسط (Grade 8) 16,000 ر.س 16,000 ر.س   متاحة  ثالث متوسط (Grade 9) 16,000 ر.س 16,000 ر.س   متاحة  أول ثانوي (Grade 10) 17,000 ر.س 17,000 ر.س   متاحة  ثاني ثانوي (Grade 11) 17,000 ر.س 17,000 ر.س   متاحة   ثالث ثانوي (Grade 12) 17,000 ر.س 17,000 ر.س   متاحة</t>
-  </si>
-  <si>
-    <t>الرسوم   عند الحجز، يمكنك دفع الرسوم الدراسية بالتقسيط حتى 60000 ريال على 12 شهر مع    احجز الان    جديد  عام الصف الرسوم للبنين الرسوم للبنات متاحة للحجز روضة 1 (KG 1) 25,500 ر.س 25,500 ر.س   متاحة  روضة 2 (KG 2) 25,500 ر.س 25,500 ر.س   متاحة  تمهيدي (KG 3) 25,500 ر.س 25,500 ر.س   متاحة  أول إبتدائي (Grade 1) 25,500 ر.س 25,500 ر.س   متاحة  ثاني إبتدائي (Grade 2) 25,500 ر.س 25,500 ر.س   متاحة  ثالث إبتدائي (Grade 3) 25,500 ر.س 25,500 ر.س   متاحة  رابع إبتدائي (Grade 4) 25,500 ر.س 25,500 ر.س   متاحة  خامس إبتدائي (Grade 5) 25,500 ر.س 25,500 ر.س   متاحة  سادس إبتدائي (Grade 6) 25,500 ر.س 25,500 ر.س   متاحة</t>
-  </si>
-  <si>
-    <t>الرسوم   عند الحجز، يمكنك دفع الرسوم الدراسية بالتقسيط حتى 60000 ريال على 12 شهر مع    احجز الان    جديد  عام الصف الرسوم للبنات متاحة للحجز روضة 1 (KG 1) 7,000 ر.س   متاحة  روضة 2 (KG 2) 7,000 ر.س   متاحة  تمهيدي (KG 3) 7,000 ر.س   متاحة</t>
-  </si>
-  <si>
-    <t>الرسوم   عند الحجز، يمكنك دفع الرسوم الدراسية بالتقسيط حتى 60000 ريال على 12 شهر مع    احجز الان    جديد  عام الصف الرسوم للبنين الرسوم للبنات متاحة للحجز روضة 1 (KG 1) 15,000 ر.س 15,000 ر.س   متاحة  روضة 2 (KG 2) 15,000 ر.س 15,000 ر.س   متاحة  تمهيدي (KG 3) 15,000 ر.س 15,000 ر.س   متاحة  أول إبتدائي (Grade 1) 19,000 ر.س 19,000 ر.س   متاحة  ثاني إبتدائي (Grade 2) 19,000 ر.س 19,000 ر.س   متاحة  ثالث إبتدائي (Grade 3) 19,000 ر.س 19,000 ر.س   متاحة  رابع إبتدائي (Grade 4) 19,000 ر.س 19,000 ر.س   متاحة  خامس إبتدائي (Grade 5) 19,000 ر.س 19,000 ر.س   متاحة  سادس إبتدائي (Grade 6) 19,000 ر.س 19,000 ر.س   متاحة  أول متوسط (Grade 7) 22,000 ر.س 22,000 ر.س   متاحة  ثاني متوسط (Grade 8) 22,000 ر.س 22,000 ر.س   متاحة  ثالث متوسط (Grade 9) 22,000 ر.س 22,000 ر.س   متاحة  أول ثانوي (Grade 10) 27,000 ر.س 27,000 ر.س   متاحة  ثاني ثانوي (Grade 11) 27,000 ر.س 27,000 ر.س   متاحة  ثالث ثانوي (Grade 12) 27,000 ر.س 27,000 ر.س   متاحة</t>
-  </si>
-  <si>
-    <t>الرسوم   عند الحجز، يمكنك دفع الرسوم الدراسية بالتقسيط حتى 60000 ريال على 12 شهر مع    احجز الان    جديد  عام الصف الرسوم للبنين متاحة للحجز أول إبتدائي (Grade 1) 12,000 ر.س   متاحة  ثاني إبتدائي (Grade 2) 12,000 ر.س   متاحة  ثالث إبتدائي (Grade 3) 12,000 ر.س   متاحة  رابع إبتدائي (Grade 4) 12,000 ر.س   متاحة  خامس إبتدائي (Grade 5) 12,000 ر.س   متاحة  سادس إبتدائي (Grade 6) 12,000 ر.س   متاحة  أول متوسط (Grade 7) 14,000 ر.س   متاحة  ثاني متوسط (Grade 8) 14,000 ر.س   متاحة  ثالث متوسط (Grade 9) 14,000 ر.س   متاحة  أول ثانوي (Grade 10) 14,000 ر.س   متاحة   ثاني ثانوي (Grade 11) 14,000 ر.س   متاحة  ثالث ثانوي (Grade 12) 14,000 ر.س   متاحة</t>
-  </si>
-  <si>
-    <t>الرسوم   عند الحجز، يمكنك دفع الرسوم الدراسية بالتقسيط حتى 60000 ريال على 12 شهر مع    احجز الان    جديد  عام الصف الرسوم للبنات متاحة للحجز روضة 1 (KG 1) 7,000 ر.س   متاحة  روضة 2 (KG 2) 7,000 ر.س    متاحة  تمهيدي (KG 3) 7,000 ر.س   متاحة  أول إبتدائي (Grade 1) 8,000 ر.س   متاحة  ثاني إبتدائي (Grade 2) 8,000 ر.س   متاحة  ثالث إبتدائي (Grade 3) 9,000 ر.س   متاحة  رابع إبتدائي (Grade 4) 9,000 ر.س   متاحة  خامس إبتدائي (Grade 5) 10,000 ر.س   متاحة  سادس إبتدائي (Grade 6) 10,000 ر.س   متاحة</t>
-  </si>
-  <si>
-    <t>الرسوم   عند الحجز، يمكنك دفع الرسوم الدراسية بالتقسيط حتى 60000 ريال على 12 شهر مع    احجز الان    جديد  عام الصف الرسوم للبنين الرسوم للبنات متاحة للحجز روضة 1 (KG 1) 6,800 ر.س 6,800 ر.س   متاحة  روضة 2 (KG 2) 6,800 ر.س 6,800 ر.س   متاحة  تمهيدي (KG 3) 6,800 ر.س 6,800 ر.س   متاحة  أول إبتدائي (Grade 1) 8,200 ر.س 8,200 ر.س   متاحة  ثاني إبتدائي (Grade 2) 8,200 ر.س 8,200 ر.س   متاحة  ثالث إبتدائي (Grade 3) 8,200 ر.س 8,200 ر.س   متاحة  رابع إبتدائي (Grade 4) 8,200 ر.س 8,200 ر.س   متاحة  خامس إبتدائي (Grade 5) 8,200 ر.س 8,200 ر.س   متاحة  سادس إبتدائي (Grade 6) 8,200 ر.س 8,200 ر.س   متاحة  أول متوسط (Grade 7) 8,900 ر.س 8,900 ر.س   متاحة  ثاني متوسط (Grade 8) 8,900 ر.س 8,900 ر.س   متاحة  ثالث متوسط (Grade 9) 8,900 ر.س 8,900 ر.س   متاحة  أول ثانوي (Grade 10) 9,200 ر.س 9,200 ر.س   متاحة  ثاني ثانوي (Grade 11) 9,200 ر.س 9,200 ر.س   متاحة  ثالث ثانوي (Grade 12) 9,200 ر.س 9,200 ر.س   متاحة</t>
-  </si>
-  <si>
-    <t>الرسوم   عند الحجز، يمكنك دفع الرسوم الدراسية بالتقسيط حتى 60000 ريال على 12 شهر مع    احجز الان    جديد  عام الصف الرسوم للبنين متاحة للحجز أول إبتدائي (Grade 1) 9,000 ر.س   متاحة  ثاني إبتدائي (Grade 2) 9,000 ر.س   متاحة  ثالث إبتدائي (Grade 3) 9,000 ر.س   متاحة  رابع إبتدائي (Grade 4) 9,000 ر.س   متاحة  خامس إبتدائي (Grade 5) 9,000 ر.س   متاحة  سادس إبتدائي (Grade 6) 9,000 ر.س   متاحة  أول متوسط (Grade 7) 10,000 ر.س   متاحة  ثاني متوسط (Grade 8) 10,000 ر.س   متاحة  ثالث متوسط (Grade 9) 10,000 ر.س   متاحة</t>
-  </si>
-  <si>
-    <t>الرسوم   عند الحجز، يمكنك دفع الرسوم الدراسية بالتقسيط حتى 60000 ريال على 12 شهر مع    احجز الان    جديد  عام الصف الرسوم للبنات متاحة للحجز روضة 1 (KG 1) 10,000 ر.س   متاحة  روضة 2 (KG 2) 10,000 ر.س   متاحة  تمهيدي (KG 3) 10,000 ر.س   متاحة  أول إبتدائي (Grade 1) 10,000 ر.س   متاحة  ثاني إبتدائي (Grade 2) 10,000 ر.س   متاحة  ثالث إبتدائي (Grade 3) 10,000 ر.س   متاحة  رابع إبتدائي (Grade 4) 10,000 ر.س   متاحة  خامس إبتدائي (Grade 5) 10,000 ر.س   متاحة  سادس إبتدائي (Grade 6) 10,000 ر.س   متاحة  أول متوسط (Grade 7) 11,000 ر.س   متاحة  ثاني متوسط (Grade 8) 11,000 ر.س    متاحة  ثالث متوسط (Grade 9) 11,000 ر.س   متاحة  أول ثانوي (Grade 10) 14,500 ر.س   متاحة  ثاني ثانوي (Grade 11) 14,500 ر.س   متاحة  ثالث ثانوي (Grade 12) 14,500 ر.س   متاحة</t>
-  </si>
-  <si>
-    <t>الرسوم   عند الحجز، يمكنك دفع الرسوم الدراسية بالتقسيط حتى 60000 ريال على 12 شهر مع    احجز الان    جديد  عام الصف الرسوم للبنات متاحة للحجز أول إبتدائي (Grade 1) 24,000 ر.س   متاحة  ثاني إبتدائي (Grade 2) 24,000 ر.س   متاحة  ثالث إبتدائي (Grade 3) 24,000 ر.س   متاحة  رابع إبتدائي (Grade 4) 24,000 ر.س   متاحة  خامس إبتدائي (Grade 5) 24,000 ر.س   متاحة  سادس إبتدائي (Grade 6) 24,000 ر.س   متاحة  أول متوسط (Grade 7) 25,000 ر.س   متاحة  ثاني متوسط (Grade 8) 25,000 ر.س   متاحة  ثالث متوسط (Grade 9) 25,000 ر.س   متاحة  أول ثانوي (Grade 10) 26,000 ر.س   متاحة  ثاني ثانوي (Grade 11) 26,000 ر.س   متاحة  ثالث ثانوي (Grade 12) 26,000 ر.س   متاحة</t>
-  </si>
-  <si>
-    <t>الرسوم   عند الحجز، يمكنك دفع الرسوم الدراسية بالتقسيط حتى 60000 ريال على 12 شهر مع    احجز الان    جديد  عام الصف الرسوم للبنين متاحة للحجز روضة 1 (KG 1) 8,000 ر.س   متاحة  روضة 2 (KG 2) 8,000 ر.س   متاحة  تمهيدي (KG 3) 8,000 ر.س   متاحة</t>
-  </si>
-  <si>
-    <t>الرسوم   عند الحجز، يمكنك دفع الرسوم الدراسية بالتقسيط حتى 60000 ريال على 12 شهر مع    احجز الان    جديد  عام الصف الرسوم للبنين الرسوم للبنات متاحة للحجز روضة 1 (KG 1) 16,000 ر.س 16,000 ر.س   متاحة  روضة 2 (KG 2) 16,000 ر.س 16,000 ر.س   متاحة  تمهيدي (KG 3) 17,000 ر.س 17,000 ر.س   متاحة  أول إبتدائي (Grade 1) 18,000 ر.س 18,000 ر.س   متاحة  ثاني إبتدائي (Grade 2) 18,000 ر.س 18,000 ر.س   متاحة  ثالث إبتدائي (Grade 3) 18,000 ر.س 18,000 ر.س   متاحة  رابع إبتدائي (Grade 4) 20,000 ر.س 20,000 ر.س   متاحة  خامس إبتدائي (Grade 5) 20,500 ر.س 20,500 ر.س   متاحة  سادس إبتدائي (Grade 6) 20,500 ر.س 20,500 ر.س   متاحة  أول متوسط (Grade 7) 21,000 ر.س 21,000 ر.س   متاحة  ثاني متوسط (Grade 8) 21,500 ر.س 21,500 ر.س   متاحة  ثالث متوسط (Grade 9) 23,000 ر.س 23,000 ر.س   متاحة  أول ثانوي (Grade 10) 23,000 ر.س 23,000 ر.س   متاحة  ثاني ثانوي (Grade 11) 26,000 ر.س 26,000 ر.س   متاحة  ثالث ثانوي (Grade 12) 26,000 ر.س 26,000 ر.س   متاحة</t>
-  </si>
-  <si>
-    <t>الرسوم   عند الحجز، يمكنك دفع الرسوم الدراسية بالتقسيط حتى 60000 ريال على 12 شهر مع    احجز الان    جديد  عام الصف الرسوم للبنين الرسوم للبنات متاحة للحجز روضة 1 (KG 1) 10,000 ر.س 10,000 ر.س   متاحة  روضة 2 (KG 2) 10,000 ر.س 10,000 ر.س   متاحة  تمهيدي (KG 3) 10,000 ر.س 10,000 ر.س   متاحة  أول إبتدائي (Grade 1) 10,000 ر.س 10,000 ر.س    متاحة  ثاني إبتدائي (Grade 2) 10,000 ر.س 10,000 ر.س   متاحة  ثالث إبتدائي (Grade 3) 10,000 ر.س 10,000 ر.س   متاحة  رابع إبتدائي (Grade 4) 10,000 ر.س 10,000 ر.س   متاحة  خامس إبتدائي (Grade 5) 10,000 ر.س 10,000 ر.س   متاحة  سادس إبتدائي (Grade 6) 10,000 ر.س 10,000 ر.س   متاحة  أول متوسط (Grade 7) 11,000 ر.س 11,000 ر.س   متاحة  ثاني متوسط (Grade 8) 11,000 ر.س 11,000 ر.س   متاحة  ثالث متوسط (Grade 9) 11,000 ر.س 11,000 ر.س   متاحة  أول ثانوي (Grade 10) 14,000 ر.س 14,000 ر.س   متاحة  ثاني ثانوي (Grade 11) 14,000 ر.س 14,000 ر.س   متاحة  ثالث ثانوي (Grade 12) 14,000 ر.س 14,000 ر.س   متاحة</t>
+    <t>الرسوم 
+عند ال...</t>
   </si>
   <si>
     <t>GoogleMaps Link</t>
@@ -1843,100 +1674,16 @@
     <t>Website</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%A7%D8%B7%D8%A6+%D8%A7%D9%84%D9%85%D8%B1%D8%AD%E2%80%AD/data=!4m7!3m6!1s0x15c21b1e126d1fa9:0x30c031be0fe0e03a!8m2!3d21.4236635!4d39.782156!16s%2Fg%2F11kr9zxhrs!19sChIJqR9tEh4bwhUROuDgD74xwDA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B1%D8%A8%D8%A7%D8%A8+%D8%A8%D9%86%D8%AA+%D8%A7%D9%84%D8%A8%D8%B1%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x159c9f73b05673d3:0xa8b7321b03912427!8m2!3d25.8310445!4d42.186899!16s%2Fg%2F11jsl1bfd4!19sChIJ03NWsHOfnBURJySRAxsyt6g?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%83%D8%AA%D8%A8+%D8%A7%D9%84%D8%AA%D8%B9%D9%84%D9%8A%D9%85+%D8%A8%D9%88%D8%B3%D8%B7+%D9%85%D9%83%D8%A9+%28%D8%A8%D9%86%D8%A7%D8%AA%29%E2%80%AD/data=!4m7!3m6!1s0x15c20378c8e33e29:0xf2d9f2a628829dc3!8m2!3d21.4286001!4d39.8523873!16s%2Fg%2F11c37ksc5t!19sChIJKT7jyHgDwhURw52CKKby2fI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D9%88%D8%B6%D8%A9+%D8%A3%D8%B7%D9%81%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15ea2da38fced2af:0xaacc2e8bdb98a6b4!8m2!3d21.3713652!4d40.6343746!16s%2Fg%2F11y1lmx269!19sChIJr9LOj6Mt6hURtKaY24suzKo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AF%D8%B1%D8%B3%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c201965a3ef781:0xb165e014961efd74!8m2!3d21.4676561!4d39.9419529!16s%2Fg%2F11lcvh9vlh!19sChIJgfc-WpYBwhURdP0elhTgZbE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AC%D9%85%D8%B9+%D9%85%D8%AF%D8%A7%D8%B1%D8%B3+%D8%A7%D9%84%D9%8A%D8%A7%D9%82%D9%88%D8%AA+%D8%A8%D9%86%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15c163dc755aed25:0x553bb49a90d65844!8m2!3d21.790213!4d39.0743132!16s%2Fg%2F11rzqd353z!19sChIJJe1addxjwRURRFjWkJq0O1U?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B3%D9%86%D8%A7%D8%A8%D9%84+%D9%85%D9%83%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c2017368b5a8e3:0x6ef7436e7f5e347d!8m2!3d21.4671911!4d39.9326124!16s%2Fg%2F11hz7h3g4g!19sChIJ46i1aHMBwhURfTRef25D924?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AF%D8%B1%D8%B3%D8%A9+%D8%A7%D9%84%D9%81%D8%A7%D8%B1%D9%88%D9%82+%D8%A7%D9%84%D9%85%D8%AA%D9%88%D8%B3%D8%B7%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e350f8a8eaa96d7:0x9edb645965676a7c!8m2!3d27.1189291!4d49.5281571!16s%2Fg%2F1z3tbvpms!19sChIJ15aqjooPNT4RfGpnZVlk254?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B1%D9%88%D8%B6%D8%A9+%D8%A7%D9%84%D8%A3%D8%B1%D8%A8%D8%B9%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f032c02be68c7:0x60e5ab5db87ddd3a!8m2!3d24.7005255!4d46.6757373!16s%2Fg%2F11cjyh96rb!19sChIJx2i-AiwDLz4ROt19uF2r5WA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AF%D8%A7%D8%B1%D8%B3+%D8%B4%D9%85%D9%88%D8%AE+%D8%A7%D9%84%D8%A7%D8%AC%D9%8A%D8%A7%D9%84+%D8%A7%D9%84%D8%A7%D9%87%D9%84%D9%8A%D8%A9+%D8%A8%D9%86%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e2f04dfdb583f93:0xec790fc11bc2c40!8m2!3d24.6364242!4d46.6906819!16s%2Fg%2F1ptz8zq80!19sChIJkz9Y298ELz4RQCy8EfyQxw4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%AE%D8%AF%D9%85%D8%A7%D8%AA+%D8%A7%D9%84%D8%AA%D8%B1%D8%A8%D9%8A%D8%A9+%D8%A7%D9%84%D8%AE%D8%A7%D8%B5%D8%A9+%D8%A8%D8%A7%D9%84%D8%A8%D8%AF%D8%A7%D8%A6%D8%B9%E2%80%AD/data=!4m7!3m6!1s0x15822725b56f61f9:0xcba345b486710bc8!8m2!3d26.0167451!4d43.7585648!16s%2Fg%2F11fyzbm9c0!19sChIJ-WFvtSUnghURyAtxhrRFo8s?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AF%D8%B1%D8%B3%D8%A9+%D8%A7%D9%84%D9%86%D9%87%D8%B6%D8%A9+%D9%84%D8%AA%D8%AD%D9%81%D9%8A%D8%B8+%D8%A7%D9%84%D9%82%D8%B1%D8%A2%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f0127981a953b:0x2d4030c95dd658a9!8m2!3d24.753554!4d46.8077294!16s%2Fg%2F11h31xbrkl!19sChIJO5UamCcBLz4RqVjWXckwQC0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%88%D9%82%D8%B9+%D9%85%D8%B4%D8%B1%D9%88%D8%B9+%D9%85%D8%AF%D8%A7%D8%B1%D8%B3+%D8%A7%D9%84%D8%AC%D9%8A%D9%84+%D8%A7%D9%84%D8%AC%D8%AF%D9%8A%D8%AF+-%D8%AD%D9%8A+%D8%A7%D9%84%D8%AD%D9%85%D8%B1%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x3e2f01788592e34f:0x88e140ae5645a6af!8m2!3d24.7727889!4d46.7656572!16s%2Fg%2F11vhbtfw23!19sChIJT-OShXgBLz4Rr6ZFVq5A4Yg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B9%D9%87%D8%AF+%D8%A7%D9%84%D8%A5%D9%85%D8%A7%D9%85+%D8%B9%D8%A7%D8%B5%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3fcc1de82b9520fb:0xe7ef1010ace7c8a4!8m2!3d28.4528264!4d48.4940973!16s%2Fg%2F11g1qjcc0n!19sChIJ-yCVK-gdzD8RpMjnrBAQ7-c?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B9%D9%82%D8%B1%D8%A8%D9%8A%D9%87+%D9%A2%D9%A2+%D8%B4%D8%A7%D8%B1%D8%B9+%D8%A7%D9%84%D8%A7%D8%AD%D8%AA%D8%B3%D8%A7%D8%A8+%D9%82%D8%B1%D9%8A%D8%A8+%D9%85%D9%86+%D9%85%D8%B3%D8%AA%D8%B4%D9%81%D9%8A+%D8%A7%D9%84%D9%85%D9%84%D9%83+%D9%81%D9%87%D8%AF+%D8%A7%D9%84%D8%AA%D8%B9%D9%84%D9%8A%D9%85%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x3e49e953275d1235:0xac1b7e76c62b7e6f!8m2!3d26.2989226!4d50.1869738!16s%2Fg%2F11sx3s4mwx!19sChIJNRJdJ1PpST4Rb34rxnZ-G6w?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AF%D8%B1%D8%B3%D8%A9+%D9%82%D8%AA%D9%8A%D8%A8%D9%87+%D8%A8%D9%86+%D9%85%D8%B3%D9%84%D9%85+%D8%A7%D9%84%D8%A5%D8%A8%D8%AA%D8%AF%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e379641e2d351bd:0xedbfd90ad9fa5dc9!8m2!3d25.4142257!4d49.588986!16s%2Fg%2F1v9l97jp!19sChIJvVHT4kGWNz4RyV362QrZv-0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AF%D8%B1%D8%B3%D8%A9+%D8%AD%D9%85%D8%B2%D8%A9+%D8%A7%D9%84%D8%B2%D9%8A%D8%A7%D8%AA+%D8%A7%D9%84%D8%A5%D8%A8%D8%AA%D8%AF%D8%A7%D8%A6%D9%8A%D8%A9+%D9%84%D8%AA%D8%AD%D9%81%D9%8A%D8%B8+%D8%A7%D9%84%D9%82%D8%B1%D8%A2%D9%86+%D8%A7%D9%84%D9%83%D8%B1%D9%8A%D9%85%E2%80%AD/data=!4m7!3m6!1s0x3e37910fcecce80f:0x71534270406cf007!8m2!3d25.3266221!4d49.5811938!16s%2Fg%2F11fz9y4f0l!19sChIJD-jMzg-RNz4RB_BsQHBCU3E?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AB%D8%A7%D9%86%D9%88%D9%8A%D8%A9+%D8%A7%D9%84%D8%AB%D8%A7%D9%84%D8%AB%D8%A9+%D8%B9%D8%B4%D8%B1+%D9%84%D9%84%D8%A8%D9%86%D8%A7%D8%AA+%D9%85%D9%82%D8%B1%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x3e37910af1341e17:0xae6821676cbe5b76!8m2!3d25.321158!4d49.5869378!16s%2Fg%2F11f_42rcjw!19sChIJFx408QqRNz4Rdlu-bGchaK4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AF%D8%B1%D8%B3%D8%A9+%D9%85%D8%AD%D8%B5%D9%86+%D8%A7%D9%84%D8%A7%D8%A8%D8%AA%D8%AF%D8%A7%D8%A6%D9%8A%D8%A9+%D9%84%D9%84%D8%A8%D9%86%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15e48f4170872bcd:0x788d15ac90a743c9!8m2!3d18.6192954!4d42.0334648!16s%2Fg%2F11q8v0y6hb!19sChIJzSuHcEGP5BURyUOnkKwVjXg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D9%88%D8%B6%D8%A9+%D8%A7%D9%86%D8%AC%D8%A7%D9%84+%D9%85%D8%AD%D8%A7%D8%B3%D9%86+%D8%A7%D9%84%D8%A3%D9%87%D9%84%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x3e3797e6361a3233:0x69637353b388732e!8m2!3d25.4151103!4d49.5454405!16s%2Fg%2F11c56rty03!19sChIJMzIaNuaXNz4RLnOIs1NzY2k?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%B9%D8%A8%D9%88%D8%B1+%D9%84%D9%84%D8%B1%D8%B9%D8%A7%D9%8A%D8%A9+%D8%A7%D9%84%D9%86%D9%87%D8%A7%D8%B1%D9%8A%D8%A9+%D9%81%D8%B1%D8%B9+%D8%AC%D9%8A%D8%B2%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x1607e3ecb340d5f3:0xecf910a456b900de!8m2!3d16.880646!4d42.59356!16s%2Fg%2F11v03sslnc!19sChIJ89VAs-zjBxYR3gC5VqQQ-ew?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B1%D9%88%D8%B6%D8%A9+%D8%A7%D9%84%D8%AB%D8%A7%D9%86%D9%8A%D8%A9+%D9%88%D8%A7%D9%84%D8%AB%D9%85%D8%A7%D9%86%D9%88%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15bdbf87a89abde7:0x6f56f1d30c64a80e!8m2!3d24.4802386!4d39.6098216!16s%2Fg%2F11p0zv20wf!19sChIJ572aqIe_vRURDqhkDNPxVm8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AF%D8%B1%D8%B3%D8%A9+%D8%B9%D8%A8%D8%AF+%D8%A7%D9%84%D8%B1%D8%AD%D9%85%D9%86+%D8%A8%D9%86+%D8%B5%D8%AE%D8%B1+%D8%A7%D9%84%D8%A7%D8%A8%D8%AA%D8%AF%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15c0970528019f77:0x2e2218d4bd1d78b9!8m2!3d22.8224537!4d39.0391011!16s%2Fg%2F11bwpdpqnd!19sChIJd58BKAWXwBURuXgdvdQYIi4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AF%D8%A7%D8%B1%D8%B3+%D8%A7%D9%88%D8%B2%D9%88%D9%86+%D8%A7%D9%84%D8%B9%D8%A7%D9%84%D9%85%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x3e2f04fa2b19efe1:0xfb18a0942b965212!8m2!3d24.6476589!4d46.7041586!16s%2Fg%2F11bzs0_ktg!19sChIJ4e8ZK_oELz4RElKWK5SgGPs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%AD%D9%84%D8%A7%D9%88%D9%87+%D9%88%D8%B4%D9%82%D8%A7%D9%88%D9%87+%D9%84%D8%B6%D9%8A%D8%A7%D9%81%D8%A9+%D8%A7%D9%84%D8%A7%D8%B7%D9%81%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x15bdbffffc2d4a45:0x5b6e13aa804047f8!8m2!3d24.4743771!4d39.5851418!16s%2Fg%2F11n039mmc8!19sChIJRUot_P-_vRUR-EdAgKoTbls?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%83%D8%AA%D8%A8+%D8%AA%D8%B9%D9%84%D9%8A%D9%85+%D8%A7%D9%84%D9%85%D9%84%D8%B2+-+%D8%A8%D9%86%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x3e2f04f5aa91f9bd:0x666f3a80bbf773cc!8m2!3d24.6580068!4d46.706768!16s%2Fg%2F1pp2wykz6!19sChIJvfmRqvUELz4RzHP3u4A6b2Y?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B1%D9%88%D8%B6%D8%A9+%D8%A7%D9%84%D8%AB%D8%A7%D9%85%D9%86%D8%A9+%D8%B9%D8%B4%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15bdbd8968ad00d5:0xeec54269d4a85a71!8m2!3d24.5253857!4d39.6482306!16s%2Fg%2F11f1067tw2!19sChIJ1QCtaIm9vRURcVqo1GlCxe4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AD%D8%B6%D8%A7%D9%86%D8%A9+%D9%83%D8%B1%D8%B2+%D9%88%D8%AA%D9%88%D8%AA+-+%D8%AD%D9%8A%D8%A7%D8%A9+%D9%85%D9%88%D9%84%E2%80%AD/data=!4m7!3m6!1s0x3e2f039b8f9710b3:0xe3c4c574b65a3843!8m2!3d24.7430183!4d46.6791757!16s%2Fg%2F11sb0jjty1!19sChIJsxCXj5sDLz4RQzhatnTFxOM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AB%D8%A7%D9%86%D9%88%D9%8A%D8%A9+%D8%A7%D9%84%D8%AE%D8%A7%D9%85%D8%B3%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1581edb15d048a27:0x103f9435edf38247!8m2!3d26.072527!4d43.9762873!16s%2Fg%2F11c20f5wpj!19sChIJJ4oEXbHtgRURR4Lz7TWUPxA?authuser=0&amp;hl=ar&amp;rclk=1</t>
+    <t>https://www.go...</t>
   </si>
   <si>
     <t>شاطئ المرح</t>
   </si>
   <si>
-    <t>الرباب بنت البراء</t>
-  </si>
-  <si>
-    <t>مكتب التعليم بوسط مكة (بنات)</t>
+    <t>الرباب بنت الب...</t>
+  </si>
+  <si>
+    <t>مكتب التعليم ب...</t>
   </si>
   <si>
     <t>روضة أطفال</t>
@@ -1945,76 +1692,76 @@
     <t>مدرسة</t>
   </si>
   <si>
-    <t>مجمع مدارس الياقوت بنين</t>
-  </si>
-  <si>
-    <t>مركز السنابل مكية</t>
-  </si>
-  <si>
-    <t>مدرسة الفاروق المتوسطة</t>
-  </si>
-  <si>
-    <t>الروضة الأربعون</t>
-  </si>
-  <si>
-    <t>مدارس شموخ الاجيال الاهلية بنات</t>
-  </si>
-  <si>
-    <t>مركز خدمات التربية الخاصة بالبدائع</t>
-  </si>
-  <si>
-    <t>مدرسة النهضة لتحفيظ القرآن</t>
-  </si>
-  <si>
-    <t>موقع مشروع مدارس الجيل الجديد -حي الحمراء</t>
-  </si>
-  <si>
-    <t>معهد الإمام عاصم</t>
-  </si>
-  <si>
-    <t>العقربيه ٢٢ شارع الاحتساب قريب من مستشفي الملك فهد التعليمي</t>
-  </si>
-  <si>
-    <t>مدرسة قتيبه بن مسلم الإبتدائية</t>
-  </si>
-  <si>
-    <t>مدرسة حمزة الزيات الإبتدائية لتحفيظ القرآن الكريم</t>
-  </si>
-  <si>
-    <t>الثانوية الثالثة عشر للبنات مقررات</t>
-  </si>
-  <si>
-    <t>مدرسة محصن الابتدائية للبنات</t>
-  </si>
-  <si>
-    <t>روضة انجال محاسن الأهليه</t>
-  </si>
-  <si>
-    <t>مركز عبور للرعاية النهارية فرع جيزان</t>
-  </si>
-  <si>
-    <t>الروضة الثانية والثمانون</t>
-  </si>
-  <si>
-    <t>مدرسة عبد الرحمن بن صخر الابتدائية</t>
-  </si>
-  <si>
-    <t>مدارس اوزون العالمية</t>
-  </si>
-  <si>
-    <t>مركز حلاوه وشقاوه لضيافة الاطفال</t>
-  </si>
-  <si>
-    <t>مكتب تعليم الملز - بنين</t>
-  </si>
-  <si>
-    <t>الروضة الثامنة عشر</t>
-  </si>
-  <si>
-    <t>حضانة كرز وتوت - حياة مول</t>
-  </si>
-  <si>
-    <t>الثانوية الخامسة</t>
+    <t>مجمع مدارس الي...</t>
+  </si>
+  <si>
+    <t>مركز السنابل م...</t>
+  </si>
+  <si>
+    <t>مدرسة الفاروق ...</t>
+  </si>
+  <si>
+    <t>الروضة الأربعو...</t>
+  </si>
+  <si>
+    <t>مدارس شموخ الا...</t>
+  </si>
+  <si>
+    <t>مركز خدمات الت...</t>
+  </si>
+  <si>
+    <t>مدرسة النهضة ل...</t>
+  </si>
+  <si>
+    <t>موقع مشروع مدا...</t>
+  </si>
+  <si>
+    <t>معهد الإمام عا...</t>
+  </si>
+  <si>
+    <t>العقربيه ٢٢ شا...</t>
+  </si>
+  <si>
+    <t>مدرسة قتيبه بن...</t>
+  </si>
+  <si>
+    <t>مدرسة حمزة الز...</t>
+  </si>
+  <si>
+    <t>الثانوية الثال...</t>
+  </si>
+  <si>
+    <t>مدرسة محصن الا...</t>
+  </si>
+  <si>
+    <t>روضة انجال محا...</t>
+  </si>
+  <si>
+    <t>مركز عبور للرع...</t>
+  </si>
+  <si>
+    <t>الروضة الثانية...</t>
+  </si>
+  <si>
+    <t>مدرسة عبد الرح...</t>
+  </si>
+  <si>
+    <t>مدارس اوزون ال...</t>
+  </si>
+  <si>
+    <t>مركز حلاوه وشق...</t>
+  </si>
+  <si>
+    <t>مكتب تعليم الم...</t>
+  </si>
+  <si>
+    <t>الروضة الثامنة...</t>
+  </si>
+  <si>
+    <t>حضانة كرز وتوت...</t>
+  </si>
+  <si>
+    <t>الثانوية الخام...</t>
   </si>
   <si>
     <t>حضانة أطفال</t>
@@ -2026,16 +1773,13 @@
     <t>مدرسة خاصة</t>
   </si>
   <si>
-    <t>مدرسة ابتدائية</t>
-  </si>
-  <si>
-    <t>المدرسة الثانوية للبنات</t>
-  </si>
-  <si>
-    <t>المرحلة الابتدائية</t>
-  </si>
-  <si>
-    <t>المركز التعليمي</t>
+    <t>مدرسة ابتدائية...</t>
+  </si>
+  <si>
+    <t>المدرسة الثانو...</t>
+  </si>
+  <si>
+    <t>المركز التعليم...</t>
   </si>
   <si>
     <t>مؤسسة تعليمية</t>
@@ -2113,91 +1857,91 @@
     <t>29</t>
   </si>
   <si>
-    <t>سوق الحجاز، طريق مكة جدة السريع، النزهة، مكة 24225، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>R5JP+CQ6، R5JP+CQ6،، عقلة الصقور 54761،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7355 النعيم، المعابدة مكة 24236 4864 النعيم، 4864، المعابدة، مكة 24236، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>9JCM+GP، ضاحية الاسكان، الطائف 26425، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي، الشرائع، مخطط 3، مكة المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3492، 8892، حي الياقوت،، جدة 23824،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8179، مكة 24267، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق النور، الجبيل الصناعية المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>PM2G+679، شارع موسى بن نصير، العليا، الرياض 12331، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>JMPR+H77، الامام فيصل بن تركي بن عبدالله، عليشة، الرياض 12742، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2Q85+MCW، أم تلعة، البدائع 56352، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>QR35+C3H، النهضة، الرياض 13221، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي الحمراء، 6591 خفاف التميمي، RFHA6591، 3739، الرياض 13217، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>FF3V+4JQ، العزيزية، الخفجي 39261، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2685 Al Ihtisab, العقربية، حي, 7831, الخبر 34445، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>CH7Q+MHX، القديمات، المبرز 36341، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8HGJ+JFW، حي الزهرة، الهفوف‎ 36442، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>مجمع مدارس البنات، طريق الأمير متعب، حي الزهرة، الهفوف‎ 36442، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>J29M+P98، محايل عسير 63723، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8815، محاسن، الهفوف والمبرز 36422، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4786 بشر النصيبي، حي السويس، GAPA8963، 8963، جازان 82617، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7285 ابو عمرو الدانى،، المصانع، المدينة المنورة 42313، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>R2CQ+XJQ، Hgff، رابغ 25754، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2188 معافي السديد، 8743، المربع، الرياض 12631، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>عامر بن خيثمة، العنابس، المدينة المنورة 42312، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>MP54+6P2، المربع، الرياض 12613، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>GJGX+575، حي الحرس، الدار، المدينة المنورة 42322، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالعزيز، الملك فهد، الرياض 12272، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3780، حي الفاخرية، حي الفاخرية،, عنيزة 56241، المملكة العربية السعودية</t>
+    <t>سوق الحجاز، طر...</t>
+  </si>
+  <si>
+    <t>R5JP+CQ6، R5JP...</t>
+  </si>
+  <si>
+    <t>7355 النعيم، ا...</t>
+  </si>
+  <si>
+    <t>9JCM+GP، ضاحية...</t>
+  </si>
+  <si>
+    <t>حي، الشرائع، م...</t>
+  </si>
+  <si>
+    <t>3492، 8892، حي...</t>
+  </si>
+  <si>
+    <t>8179، مكة 2426...</t>
+  </si>
+  <si>
+    <t>طريق النور، ال...</t>
+  </si>
+  <si>
+    <t>PM2G+679، شارع...</t>
+  </si>
+  <si>
+    <t>JMPR+H77، الام...</t>
+  </si>
+  <si>
+    <t>2Q85+MCW، أم ت...</t>
+  </si>
+  <si>
+    <t>QR35+C3H، النه...</t>
+  </si>
+  <si>
+    <t>حي الحمراء، 65...</t>
+  </si>
+  <si>
+    <t>FF3V+4JQ، العز...</t>
+  </si>
+  <si>
+    <t>2685 Al Ihtisa...</t>
+  </si>
+  <si>
+    <t>CH7Q+MHX، القد...</t>
+  </si>
+  <si>
+    <t>8HGJ+JFW، حي ا...</t>
+  </si>
+  <si>
+    <t>مجمع مدارس الب...</t>
+  </si>
+  <si>
+    <t>J29M+P98، محاي...</t>
+  </si>
+  <si>
+    <t>8815، محاسن، ا...</t>
+  </si>
+  <si>
+    <t>4786 بشر النصي...</t>
+  </si>
+  <si>
+    <t>7285 ابو عمرو ...</t>
+  </si>
+  <si>
+    <t>R2CQ+XJQ، Hgff...</t>
+  </si>
+  <si>
+    <t>2188 معافي الس...</t>
+  </si>
+  <si>
+    <t>عامر بن خيثمة،...</t>
+  </si>
+  <si>
+    <t>MP54+6P2، المر...</t>
+  </si>
+  <si>
+    <t>GJGX+575، حي ا...</t>
+  </si>
+  <si>
+    <t>طريق الملك عبد...</t>
+  </si>
+  <si>
+    <t>3780، حي الفاخ...</t>
   </si>
   <si>
     <t>+966534103533</t>
@@ -2236,13 +1980,13 @@
     <t>+966163648238</t>
   </si>
   <si>
-    <t>https://marhabi.net/telephone-49.html</t>
-  </si>
-  <si>
-    <t>http://www.moe.gov.sa/</t>
-  </si>
-  <si>
-    <t>https://ozoneschool.org/</t>
+    <t>https://marhab...</t>
+  </si>
+  <si>
+    <t>http://www.moe...</t>
+  </si>
+  <si>
+    <t>https://ozones...</t>
   </si>
 </sst>
 </file>
@@ -2686,10 +2430,10 @@
         <v>199</v>
       </c>
       <c r="K2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L2" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2721,10 +2465,10 @@
         <v>200</v>
       </c>
       <c r="K3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L3" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2759,10 +2503,10 @@
         <v>228</v>
       </c>
       <c r="K4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L4" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2794,10 +2538,10 @@
         <v>202</v>
       </c>
       <c r="K5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L5" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2829,10 +2573,10 @@
         <v>203</v>
       </c>
       <c r="K6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L6" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2864,10 +2608,10 @@
         <v>204</v>
       </c>
       <c r="K7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L7" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2902,10 +2646,10 @@
         <v>229</v>
       </c>
       <c r="K8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L8" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2937,10 +2681,10 @@
         <v>230</v>
       </c>
       <c r="K9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L9" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2972,10 +2716,10 @@
         <v>207</v>
       </c>
       <c r="K10" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="L10" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3007,10 +2751,10 @@
         <v>231</v>
       </c>
       <c r="K11" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="L11" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3042,10 +2786,10 @@
         <v>209</v>
       </c>
       <c r="K12" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L12" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3077,10 +2821,10 @@
         <v>210</v>
       </c>
       <c r="K13" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="L13" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3115,10 +2859,10 @@
         <v>232</v>
       </c>
       <c r="K14" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="L14" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3153,10 +2897,10 @@
         <v>233</v>
       </c>
       <c r="K15" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="L15" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3188,10 +2932,10 @@
         <v>213</v>
       </c>
       <c r="K16" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="L16" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3223,10 +2967,10 @@
         <v>234</v>
       </c>
       <c r="K17" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="L17" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3258,13 +3002,13 @@
         <v>215</v>
       </c>
       <c r="J18" t="s">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="K18" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="L18" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3293,13 +3037,13 @@
         <v>216</v>
       </c>
       <c r="J19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K19" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="L19" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3331,13 +3075,13 @@
         <v>217</v>
       </c>
       <c r="J20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K20" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="L20" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3369,10 +3113,10 @@
         <v>218</v>
       </c>
       <c r="K21" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="L21" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3404,10 +3148,10 @@
         <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3436,13 +3180,13 @@
         <v>220</v>
       </c>
       <c r="J23" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" t="s">
         <v>239</v>
       </c>
-      <c r="K23" t="s">
-        <v>260</v>
-      </c>
       <c r="L23" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3474,10 +3218,10 @@
         <v>221</v>
       </c>
       <c r="K24" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3509,10 +3253,10 @@
         <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3544,10 +3288,10 @@
         <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3579,10 +3323,10 @@
         <v>224</v>
       </c>
       <c r="K27" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3614,10 +3358,10 @@
         <v>225</v>
       </c>
       <c r="K28" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="L28" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3649,10 +3393,10 @@
         <v>226</v>
       </c>
       <c r="K29" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3684,10 +3428,10 @@
         <v>227</v>
       </c>
       <c r="K30" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3705,25 +3449,25 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -3732,328 +3476,328 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E2" t="s">
         <v>307</v>
       </c>
-      <c r="C2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E2" t="s">
-        <v>345</v>
-      </c>
       <c r="F2" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G2" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="H2" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="I2" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="J2" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="L2" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" t="s">
         <v>308</v>
       </c>
-      <c r="C3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E3" t="s">
-        <v>346</v>
-      </c>
       <c r="F3" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="G3" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="I3" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="J3" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="K3" t="s">
         <v>67</v>
       </c>
       <c r="L3" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D4" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E4" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="F4" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G4" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="H4" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="I4" t="s">
-        <v>391</v>
+        <v>349</v>
       </c>
       <c r="J4" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="K4" t="s">
         <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F5" t="s">
         <v>310</v>
       </c>
-      <c r="C5" t="s">
-        <v>336</v>
-      </c>
-      <c r="D5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F5" t="s">
-        <v>352</v>
-      </c>
       <c r="G5" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="H5" t="s">
-        <v>381</v>
+        <v>339</v>
       </c>
       <c r="I5" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="J5" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="K5" t="s">
         <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="D6" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="E6" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="F6" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G6" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="I6" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="J6" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="K6" t="s">
         <v>67</v>
       </c>
       <c r="L6" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" t="s">
         <v>283</v>
       </c>
-      <c r="B7" t="s">
-        <v>312</v>
-      </c>
       <c r="C7" t="s">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="D7" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E7" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="F7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I7" t="s">
         <v>352</v>
       </c>
-      <c r="G7" t="s">
-        <v>360</v>
-      </c>
-      <c r="I7" t="s">
-        <v>394</v>
-      </c>
       <c r="J7" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="K7" t="s">
         <v>74</v>
       </c>
       <c r="L7" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D8" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="F8" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G8" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="I8" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="J8" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="K8" t="s">
         <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="D9" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="E9" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G9" t="s">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="H9" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="I9" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="J9" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="K9" t="s">
         <v>67</v>
       </c>
       <c r="L9" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="D10" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="E10" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="F10" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="I10" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="J10" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="K10" t="s">
         <v>67</v>
@@ -4061,72 +3805,72 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" t="s">
         <v>287</v>
       </c>
-      <c r="B11" t="s">
-        <v>316</v>
-      </c>
       <c r="C11" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="D11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G11" t="s">
+        <v>321</v>
+      </c>
+      <c r="H11" t="s">
         <v>341</v>
       </c>
-      <c r="E11" t="s">
-        <v>350</v>
-      </c>
-      <c r="F11" t="s">
-        <v>352</v>
-      </c>
-      <c r="G11" t="s">
-        <v>363</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>356</v>
+      </c>
+      <c r="J11" t="s">
         <v>383</v>
-      </c>
-      <c r="I11" t="s">
-        <v>398</v>
-      </c>
-      <c r="J11" t="s">
-        <v>425</v>
       </c>
       <c r="K11" t="s">
         <v>67</v>
       </c>
       <c r="L11" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" t="s">
         <v>288</v>
       </c>
-      <c r="B12" t="s">
-        <v>317</v>
-      </c>
       <c r="C12" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D12" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E12" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="F12" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G12" t="s">
-        <v>364</v>
+        <v>322</v>
       </c>
       <c r="H12" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="I12" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="J12" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
       <c r="K12" t="s">
         <v>67</v>
@@ -4134,209 +3878,209 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" t="s">
         <v>289</v>
       </c>
-      <c r="B13" t="s">
-        <v>318</v>
-      </c>
       <c r="C13" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D13" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E13" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="F13" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="G13" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="H13" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="I13" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="J13" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="K13" t="s">
         <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>290</v>
       </c>
-      <c r="B14" t="s">
-        <v>319</v>
-      </c>
       <c r="C14" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D14" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E14" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="F14" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G14" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="I14" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="J14" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="K14" t="s">
         <v>72</v>
       </c>
       <c r="L14" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B15" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D15" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E15" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="F15" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="G15" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="H15" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="I15" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="J15" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="K15" t="s">
         <v>67</v>
       </c>
       <c r="L15" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B16" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="C16" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D16" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E16" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="F16" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G16" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="I16" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="J16" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="K16" t="s">
         <v>67</v>
       </c>
       <c r="L16" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B17" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="C17" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D17" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E17" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="F17" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G17" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="I17" t="s">
-        <v>404</v>
+        <v>362</v>
       </c>
       <c r="J17" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="L17" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="B18" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="C18" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D18" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E18" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="F18" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G18" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="I18" t="s">
-        <v>405</v>
+        <v>363</v>
       </c>
       <c r="J18" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="K18" t="s">
         <v>67</v>
@@ -4344,104 +4088,104 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="B19" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="C19" t="s">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="D19" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="E19" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="F19" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G19" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="I19" t="s">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="J19" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="K19" t="s">
         <v>71</v>
       </c>
       <c r="L19" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="C20" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="D20" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="E20" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="F20" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G20" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="H20" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="I20" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
       <c r="J20" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="K20" t="s">
         <v>72</v>
       </c>
       <c r="L20" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="B21" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D21" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E21" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="F21" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G21" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="I21" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="J21" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="K21" t="s">
         <v>67</v>
@@ -4449,171 +4193,171 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" t="s">
         <v>298</v>
       </c>
-      <c r="B22" t="s">
-        <v>327</v>
-      </c>
-      <c r="C22" t="s">
-        <v>336</v>
-      </c>
       <c r="D22" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G22" t="s">
+        <v>332</v>
+      </c>
+      <c r="H22" t="s">
         <v>345</v>
       </c>
-      <c r="F22" t="s">
-        <v>352</v>
-      </c>
-      <c r="G22" t="s">
-        <v>374</v>
-      </c>
-      <c r="H22" t="s">
-        <v>387</v>
-      </c>
       <c r="I22" t="s">
-        <v>409</v>
+        <v>367</v>
       </c>
       <c r="J22" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="K22" t="s">
         <v>67</v>
       </c>
       <c r="L22" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="B23" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="C23" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D23" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E23" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
       <c r="F23" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="I23" t="s">
-        <v>410</v>
+        <v>368</v>
       </c>
       <c r="J23" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="K23" t="s">
         <v>72</v>
       </c>
       <c r="L23" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="B24" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="C24" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D24" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E24" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="F24" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="G24" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="I24" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="J24" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
       <c r="K24" t="s">
         <v>67</v>
       </c>
       <c r="L24" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="C25" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="D25" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="E25" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="F25" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G25" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="I25" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="J25" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="K25" t="s">
         <v>72</v>
       </c>
       <c r="L25" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" t="s">
         <v>302</v>
       </c>
-      <c r="B26" t="s">
-        <v>331</v>
-      </c>
-      <c r="C26" t="s">
-        <v>336</v>
-      </c>
-      <c r="D26" t="s">
-        <v>340</v>
-      </c>
       <c r="E26" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="F26" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G26" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="I26" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="J26" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="K26" t="s">
         <v>67</v>
@@ -4621,60 +4365,60 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="C27" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D27" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E27" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="F27" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="I27" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="J27" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="K27" t="s">
         <v>72</v>
       </c>
       <c r="L27" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="C28" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="D28" t="s">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="E28" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="F28" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="I28" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="J28" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="K28" t="s">
         <v>67</v>
@@ -4682,72 +4426,72 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="C29" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="D29" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="E29" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="F29" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="I29" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="J29" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="K29" t="s">
         <v>72</v>
       </c>
       <c r="L29" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" t="s">
+        <v>297</v>
+      </c>
+      <c r="C30" t="s">
+        <v>301</v>
+      </c>
+      <c r="D30" t="s">
         <v>306</v>
       </c>
-      <c r="B30" t="s">
-        <v>335</v>
-      </c>
-      <c r="C30" t="s">
-        <v>339</v>
-      </c>
-      <c r="D30" t="s">
-        <v>344</v>
-      </c>
       <c r="E30" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="F30" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="G30" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="H30" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
       <c r="I30" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="J30" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="K30" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="L30" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -4765,7 +4509,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -4774,22 +4518,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -4798,1058 +4542,1058 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>443</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E2" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="F2" t="s">
-        <v>532</v>
+        <v>485</v>
       </c>
       <c r="G2" t="s">
-        <v>538</v>
+        <v>490</v>
       </c>
       <c r="M2" t="s">
-        <v>570</v>
+        <v>519</v>
       </c>
       <c r="N2" t="s">
-        <v>584</v>
+        <v>533</v>
       </c>
       <c r="O2" t="s">
-        <v>587</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>462</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
-        <v>491</v>
+        <v>444</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="F3" t="s">
-        <v>533</v>
+        <v>486</v>
       </c>
       <c r="G3" t="s">
-        <v>539</v>
+        <v>491</v>
       </c>
       <c r="H3" t="s">
+        <v>493</v>
+      </c>
+      <c r="I3" t="s">
+        <v>510</v>
+      </c>
+      <c r="J3" t="s">
+        <v>514</v>
+      </c>
+      <c r="M3" t="s">
+        <v>520</v>
+      </c>
+      <c r="N3" t="s">
+        <v>534</v>
+      </c>
+      <c r="O3" t="s">
+        <v>537</v>
+      </c>
+      <c r="P3" t="s">
         <v>541</v>
-      </c>
-      <c r="I3" t="s">
-        <v>561</v>
-      </c>
-      <c r="J3" t="s">
-        <v>565</v>
-      </c>
-      <c r="M3" t="s">
-        <v>571</v>
-      </c>
-      <c r="N3" t="s">
-        <v>585</v>
-      </c>
-      <c r="O3" t="s">
-        <v>588</v>
-      </c>
-      <c r="P3" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
-        <v>492</v>
+        <v>445</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E4" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="F4" t="s">
+        <v>487</v>
+      </c>
+      <c r="G4" t="s">
+        <v>492</v>
+      </c>
+      <c r="M4" t="s">
+        <v>521</v>
+      </c>
+      <c r="N4" t="s">
         <v>534</v>
       </c>
-      <c r="G4" t="s">
-        <v>540</v>
-      </c>
-      <c r="M4" t="s">
-        <v>572</v>
-      </c>
-      <c r="N4" t="s">
-        <v>585</v>
-      </c>
       <c r="O4" t="s">
-        <v>589</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
-        <v>493</v>
+        <v>446</v>
       </c>
       <c r="C5" t="s">
-        <v>519</v>
+        <v>472</v>
       </c>
       <c r="D5" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="E5" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="F5" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="G5" t="s">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="H5" t="s">
-        <v>542</v>
+        <v>494</v>
       </c>
       <c r="M5" t="s">
-        <v>573</v>
+        <v>522</v>
       </c>
       <c r="N5" t="s">
-        <v>584</v>
+        <v>533</v>
       </c>
       <c r="O5" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
       <c r="P5" t="s">
-        <v>593</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>465</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>494</v>
+        <v>447</v>
       </c>
       <c r="C6" t="s">
-        <v>520</v>
+        <v>473</v>
       </c>
       <c r="D6" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E6" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="F6" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="G6" t="s">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="H6" t="s">
-        <v>543</v>
+        <v>495</v>
       </c>
       <c r="M6" t="s">
-        <v>574</v>
+        <v>523</v>
       </c>
       <c r="N6" t="s">
-        <v>584</v>
+        <v>533</v>
       </c>
       <c r="O6" t="s">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="P6" t="s">
-        <v>594</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
-        <v>495</v>
+        <v>448</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E7" t="s">
-        <v>529</v>
+        <v>482</v>
       </c>
       <c r="F7" t="s">
-        <v>533</v>
+        <v>486</v>
       </c>
       <c r="G7" t="s">
-        <v>539</v>
+        <v>491</v>
       </c>
       <c r="P7" t="s">
-        <v>595</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>421</v>
       </c>
       <c r="B8" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
       <c r="C8" t="s">
         <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="E8" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="F8" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="G8" t="s">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="H8" t="s">
-        <v>544</v>
+        <v>496</v>
       </c>
       <c r="I8" t="s">
-        <v>562</v>
+        <v>511</v>
       </c>
       <c r="J8" t="s">
-        <v>566</v>
+        <v>515</v>
       </c>
       <c r="K8" t="s">
-        <v>569</v>
+        <v>518</v>
       </c>
       <c r="M8" t="s">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="N8" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="O8" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
       <c r="P8" t="s">
-        <v>596</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>422</v>
       </c>
       <c r="B9" t="s">
-        <v>497</v>
+        <v>450</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E9" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="F9" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="G9" t="s">
-        <v>538</v>
+        <v>490</v>
       </c>
       <c r="H9" t="s">
-        <v>545</v>
+        <v>497</v>
       </c>
       <c r="M9" t="s">
-        <v>572</v>
+        <v>521</v>
       </c>
       <c r="N9" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="O9" t="s">
-        <v>591</v>
+        <v>540</v>
       </c>
       <c r="P9" t="s">
-        <v>597</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="B10" t="s">
-        <v>498</v>
+        <v>451</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E10" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="F10" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="G10" t="s">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="M10" t="s">
-        <v>576</v>
+        <v>525</v>
       </c>
       <c r="N10" t="s">
-        <v>584</v>
+        <v>533</v>
       </c>
       <c r="O10" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>470</v>
+        <v>424</v>
       </c>
       <c r="B11" t="s">
-        <v>499</v>
+        <v>452</v>
       </c>
       <c r="C11" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="D11" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E11" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="F11" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
       <c r="G11" t="s">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="M11" t="s">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="N11" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="O11" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="B12" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="C12" t="s">
         <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E12" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="F12" t="s">
-        <v>532</v>
+        <v>485</v>
       </c>
       <c r="G12" t="s">
+        <v>492</v>
+      </c>
+      <c r="H12" t="s">
+        <v>425</v>
+      </c>
+      <c r="M12" t="s">
+        <v>521</v>
+      </c>
+      <c r="N12" t="s">
+        <v>534</v>
+      </c>
+      <c r="O12" t="s">
         <v>540</v>
-      </c>
-      <c r="H12" t="s">
-        <v>546</v>
-      </c>
-      <c r="M12" t="s">
-        <v>572</v>
-      </c>
-      <c r="N12" t="s">
-        <v>585</v>
-      </c>
-      <c r="O12" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>472</v>
+        <v>426</v>
       </c>
       <c r="B13" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
       <c r="C13" t="s">
         <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E13" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="F13" t="s">
-        <v>532</v>
+        <v>485</v>
       </c>
       <c r="G13" t="s">
-        <v>539</v>
+        <v>491</v>
       </c>
       <c r="H13" t="s">
-        <v>547</v>
+        <v>426</v>
       </c>
       <c r="M13" t="s">
-        <v>572</v>
+        <v>521</v>
       </c>
       <c r="N13" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="O13" t="s">
-        <v>589</v>
+        <v>538</v>
       </c>
       <c r="P13" t="s">
-        <v>598</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>473</v>
+        <v>427</v>
       </c>
       <c r="B14" t="s">
-        <v>502</v>
+        <v>455</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E14" t="s">
-        <v>529</v>
+        <v>482</v>
       </c>
       <c r="F14" t="s">
-        <v>532</v>
+        <v>485</v>
       </c>
       <c r="G14" t="s">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="M14" t="s">
-        <v>577</v>
+        <v>526</v>
       </c>
       <c r="N14" t="s">
-        <v>586</v>
+        <v>535</v>
       </c>
       <c r="O14" t="s">
-        <v>589</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>474</v>
+        <v>428</v>
       </c>
       <c r="B15" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E15" t="s">
-        <v>530</v>
+        <v>483</v>
       </c>
       <c r="F15" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="G15" t="s">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="H15" t="s">
-        <v>548</v>
+        <v>497</v>
       </c>
       <c r="M15" t="s">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="N15" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="O15" t="s">
-        <v>589</v>
+        <v>538</v>
       </c>
       <c r="P15" t="s">
-        <v>599</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>475</v>
+        <v>429</v>
       </c>
       <c r="B16" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="C16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D16" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" t="s">
+        <v>482</v>
+      </c>
+      <c r="F16" t="s">
+        <v>488</v>
+      </c>
+      <c r="G16" t="s">
+        <v>490</v>
+      </c>
+      <c r="H16" t="s">
+        <v>498</v>
+      </c>
+      <c r="M16" t="s">
         <v>521</v>
       </c>
-      <c r="D16" t="s">
-        <v>336</v>
-      </c>
-      <c r="E16" t="s">
-        <v>529</v>
-      </c>
-      <c r="F16" t="s">
-        <v>535</v>
-      </c>
-      <c r="G16" t="s">
-        <v>538</v>
-      </c>
-      <c r="H16" t="s">
-        <v>549</v>
-      </c>
-      <c r="M16" t="s">
-        <v>572</v>
-      </c>
       <c r="N16" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="O16" t="s">
-        <v>591</v>
+        <v>540</v>
       </c>
       <c r="P16" t="s">
-        <v>600</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>476</v>
+        <v>430</v>
       </c>
       <c r="B17" t="s">
-        <v>505</v>
+        <v>458</v>
       </c>
       <c r="C17" t="s">
         <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E17" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="F17" t="s">
+        <v>488</v>
+      </c>
+      <c r="G17" t="s">
+        <v>491</v>
+      </c>
+      <c r="M17" t="s">
+        <v>527</v>
+      </c>
+      <c r="N17" t="s">
         <v>535</v>
       </c>
-      <c r="G17" t="s">
-        <v>539</v>
-      </c>
-      <c r="M17" t="s">
-        <v>578</v>
-      </c>
-      <c r="N17" t="s">
-        <v>586</v>
-      </c>
       <c r="O17" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
       <c r="P17" t="s">
-        <v>601</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>477</v>
+        <v>431</v>
       </c>
       <c r="B18" t="s">
-        <v>506</v>
+        <v>459</v>
       </c>
       <c r="C18" t="s">
         <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="E18" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="F18" t="s">
-        <v>532</v>
+        <v>485</v>
       </c>
       <c r="G18" t="s">
-        <v>539</v>
+        <v>491</v>
       </c>
       <c r="H18" t="s">
-        <v>550</v>
+        <v>499</v>
       </c>
       <c r="I18" t="s">
-        <v>563</v>
+        <v>512</v>
       </c>
       <c r="J18" t="s">
-        <v>567</v>
+        <v>516</v>
       </c>
       <c r="M18" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="N18" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="O18" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>478</v>
+        <v>432</v>
       </c>
       <c r="B19" t="s">
-        <v>507</v>
+        <v>460</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E19" t="s">
+        <v>482</v>
+      </c>
+      <c r="F19" t="s">
+        <v>485</v>
+      </c>
+      <c r="G19" t="s">
+        <v>492</v>
+      </c>
+      <c r="M19" t="s">
         <v>529</v>
       </c>
-      <c r="F19" t="s">
-        <v>532</v>
-      </c>
-      <c r="G19" t="s">
-        <v>540</v>
-      </c>
-      <c r="M19" t="s">
-        <v>580</v>
-      </c>
       <c r="N19" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="O19" t="s">
-        <v>590</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="B20" t="s">
-        <v>508</v>
+        <v>461</v>
       </c>
       <c r="C20" t="s">
         <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="E20" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="F20" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="G20" t="s">
-        <v>539</v>
+        <v>491</v>
       </c>
       <c r="H20" t="s">
-        <v>551</v>
+        <v>500</v>
       </c>
       <c r="M20" t="s">
-        <v>581</v>
+        <v>530</v>
       </c>
       <c r="N20" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="O20" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
       <c r="P20" t="s">
-        <v>602</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>480</v>
+        <v>434</v>
       </c>
       <c r="B21" t="s">
-        <v>509</v>
+        <v>462</v>
       </c>
       <c r="C21" t="s">
         <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E21" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="F21" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
       <c r="G21" t="s">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="M21" t="s">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="N21" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="O21" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>481</v>
+        <v>435</v>
       </c>
       <c r="B22" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
       <c r="C22" t="s">
-        <v>522</v>
+        <v>475</v>
       </c>
       <c r="D22" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E22" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="F22" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="G22" t="s">
+        <v>490</v>
+      </c>
+      <c r="H22" t="s">
+        <v>501</v>
+      </c>
+      <c r="I22" t="s">
+        <v>513</v>
+      </c>
+      <c r="J22" t="s">
+        <v>517</v>
+      </c>
+      <c r="M22" t="s">
+        <v>521</v>
+      </c>
+      <c r="N22" t="s">
+        <v>534</v>
+      </c>
+      <c r="O22" t="s">
         <v>538</v>
       </c>
-      <c r="H22" t="s">
-        <v>552</v>
-      </c>
-      <c r="I22" t="s">
-        <v>564</v>
-      </c>
-      <c r="J22" t="s">
-        <v>568</v>
-      </c>
-      <c r="M22" t="s">
-        <v>572</v>
-      </c>
-      <c r="N22" t="s">
-        <v>585</v>
-      </c>
-      <c r="O22" t="s">
-        <v>589</v>
-      </c>
       <c r="P22" t="s">
-        <v>603</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>482</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>511</v>
+        <v>464</v>
       </c>
       <c r="C23" t="s">
         <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="E23" t="s">
+        <v>484</v>
+      </c>
+      <c r="F23" t="s">
+        <v>488</v>
+      </c>
+      <c r="G23" t="s">
+        <v>492</v>
+      </c>
+      <c r="H23" t="s">
+        <v>502</v>
+      </c>
+      <c r="M23" t="s">
         <v>531</v>
       </c>
-      <c r="F23" t="s">
-        <v>535</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="N23" t="s">
+        <v>534</v>
+      </c>
+      <c r="O23" t="s">
         <v>540</v>
       </c>
-      <c r="H23" t="s">
-        <v>553</v>
-      </c>
-      <c r="M23" t="s">
-        <v>582</v>
-      </c>
-      <c r="N23" t="s">
-        <v>585</v>
-      </c>
-      <c r="O23" t="s">
-        <v>591</v>
-      </c>
       <c r="P23" t="s">
-        <v>604</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>483</v>
+        <v>436</v>
       </c>
       <c r="B24" t="s">
-        <v>512</v>
+        <v>465</v>
       </c>
       <c r="C24" t="s">
-        <v>523</v>
+        <v>476</v>
       </c>
       <c r="D24" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E24" t="s">
-        <v>529</v>
+        <v>482</v>
       </c>
       <c r="F24" t="s">
-        <v>537</v>
+        <v>489</v>
       </c>
       <c r="G24" t="s">
+        <v>492</v>
+      </c>
+      <c r="H24" t="s">
+        <v>503</v>
+      </c>
+      <c r="M24" t="s">
+        <v>525</v>
+      </c>
+      <c r="N24" t="s">
+        <v>533</v>
+      </c>
+      <c r="O24" t="s">
         <v>540</v>
-      </c>
-      <c r="H24" t="s">
-        <v>554</v>
-      </c>
-      <c r="M24" t="s">
-        <v>576</v>
-      </c>
-      <c r="N24" t="s">
-        <v>584</v>
-      </c>
-      <c r="O24" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>484</v>
+        <v>437</v>
       </c>
       <c r="B25" t="s">
-        <v>513</v>
+        <v>466</v>
       </c>
       <c r="C25" t="s">
-        <v>524</v>
+        <v>477</v>
       </c>
       <c r="D25" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E25" t="s">
-        <v>529</v>
+        <v>482</v>
       </c>
       <c r="F25" t="s">
+        <v>488</v>
+      </c>
+      <c r="G25" t="s">
+        <v>492</v>
+      </c>
+      <c r="H25" t="s">
+        <v>504</v>
+      </c>
+      <c r="M25" t="s">
+        <v>527</v>
+      </c>
+      <c r="N25" t="s">
         <v>535</v>
       </c>
-      <c r="G25" t="s">
-        <v>540</v>
-      </c>
-      <c r="H25" t="s">
-        <v>555</v>
-      </c>
-      <c r="M25" t="s">
-        <v>578</v>
-      </c>
-      <c r="N25" t="s">
-        <v>586</v>
-      </c>
       <c r="O25" t="s">
-        <v>589</v>
+        <v>538</v>
       </c>
       <c r="P25" t="s">
-        <v>605</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="B26" t="s">
-        <v>514</v>
+        <v>467</v>
       </c>
       <c r="C26" t="s">
-        <v>525</v>
+        <v>478</v>
       </c>
       <c r="D26" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E26" t="s">
-        <v>529</v>
+        <v>482</v>
       </c>
       <c r="F26" t="s">
-        <v>533</v>
+        <v>486</v>
       </c>
       <c r="G26" t="s">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="H26" t="s">
-        <v>556</v>
+        <v>505</v>
       </c>
       <c r="M26" t="s">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="N26" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="O26" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="B27" t="s">
-        <v>515</v>
+        <v>468</v>
       </c>
       <c r="C27" t="s">
         <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E27" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="F27" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="G27" t="s">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="H27" t="s">
-        <v>557</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>487</v>
+        <v>440</v>
       </c>
       <c r="B28" t="s">
-        <v>516</v>
+        <v>469</v>
       </c>
       <c r="C28" t="s">
         <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>526</v>
+        <v>479</v>
       </c>
       <c r="E28" t="s">
-        <v>529</v>
+        <v>482</v>
       </c>
       <c r="F28" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="G28" t="s">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="H28" t="s">
-        <v>558</v>
+        <v>507</v>
       </c>
       <c r="M28" t="s">
-        <v>572</v>
+        <v>521</v>
       </c>
       <c r="N28" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="O28" t="s">
-        <v>589</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="B29" t="s">
-        <v>517</v>
+        <v>470</v>
       </c>
       <c r="C29" t="s">
         <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="E29" t="s">
-        <v>527</v>
+        <v>480</v>
       </c>
       <c r="F29" t="s">
+        <v>488</v>
+      </c>
+      <c r="G29" t="s">
+        <v>492</v>
+      </c>
+      <c r="H29" t="s">
+        <v>508</v>
+      </c>
+      <c r="M29" t="s">
+        <v>526</v>
+      </c>
+      <c r="N29" t="s">
         <v>535</v>
       </c>
-      <c r="G29" t="s">
-        <v>540</v>
-      </c>
-      <c r="H29" t="s">
-        <v>559</v>
-      </c>
-      <c r="M29" t="s">
-        <v>577</v>
-      </c>
-      <c r="N29" t="s">
-        <v>586</v>
-      </c>
       <c r="O29" t="s">
-        <v>588</v>
+        <v>537</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>489</v>
+        <v>442</v>
       </c>
       <c r="B30" t="s">
-        <v>518</v>
+        <v>471</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="E30" t="s">
-        <v>528</v>
+        <v>481</v>
       </c>
       <c r="F30" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
       <c r="G30" t="s">
-        <v>540</v>
+        <v>492</v>
       </c>
       <c r="H30" t="s">
-        <v>560</v>
+        <v>509</v>
       </c>
       <c r="M30" t="s">
-        <v>583</v>
+        <v>532</v>
       </c>
       <c r="N30" t="s">
-        <v>585</v>
+        <v>534</v>
       </c>
       <c r="O30" t="s">
-        <v>589</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -5867,19 +5611,19 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>606</v>
+        <v>542</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -5888,611 +5632,611 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>607</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>608</v>
+        <v>544</v>
       </c>
       <c r="B2" t="s">
-        <v>637</v>
+        <v>545</v>
       </c>
       <c r="C2" t="s">
-        <v>666</v>
+        <v>574</v>
       </c>
       <c r="D2" t="s">
-        <v>572</v>
+        <v>521</v>
       </c>
       <c r="E2" t="s">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="F2" t="s">
-        <v>698</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>609</v>
+        <v>544</v>
       </c>
       <c r="B3" t="s">
-        <v>638</v>
+        <v>546</v>
       </c>
       <c r="C3" t="s">
-        <v>667</v>
+        <v>575</v>
       </c>
       <c r="F3" t="s">
-        <v>699</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>610</v>
+        <v>544</v>
       </c>
       <c r="B4" t="s">
-        <v>639</v>
+        <v>547</v>
       </c>
       <c r="C4" t="s">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="D4" t="s">
-        <v>674</v>
+        <v>581</v>
       </c>
       <c r="E4" t="s">
-        <v>681</v>
+        <v>588</v>
       </c>
       <c r="F4" t="s">
-        <v>700</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>611</v>
+        <v>544</v>
       </c>
       <c r="B5" t="s">
-        <v>640</v>
+        <v>548</v>
       </c>
       <c r="C5" t="s">
-        <v>667</v>
+        <v>575</v>
       </c>
       <c r="F5" t="s">
-        <v>701</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>612</v>
+        <v>544</v>
       </c>
       <c r="B6" t="s">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="F6" t="s">
-        <v>702</v>
+        <v>609</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>613</v>
+        <v>544</v>
       </c>
       <c r="B7" t="s">
-        <v>642</v>
+        <v>550</v>
       </c>
       <c r="C7" t="s">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="D7" t="s">
-        <v>576</v>
+        <v>525</v>
       </c>
       <c r="E7" t="s">
-        <v>682</v>
+        <v>589</v>
       </c>
       <c r="F7" t="s">
-        <v>703</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>614</v>
+        <v>544</v>
       </c>
       <c r="B8" t="s">
-        <v>643</v>
+        <v>551</v>
       </c>
       <c r="C8" t="s">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="D8" t="s">
-        <v>675</v>
+        <v>582</v>
       </c>
       <c r="E8" t="s">
-        <v>683</v>
+        <v>590</v>
       </c>
       <c r="F8" t="s">
-        <v>704</v>
+        <v>611</v>
       </c>
       <c r="G8" t="s">
-        <v>727</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>615</v>
+        <v>544</v>
       </c>
       <c r="B9" t="s">
-        <v>644</v>
+        <v>552</v>
       </c>
       <c r="C9" t="s">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="D9" t="s">
-        <v>676</v>
+        <v>583</v>
       </c>
       <c r="E9" t="s">
-        <v>684</v>
+        <v>591</v>
       </c>
       <c r="F9" t="s">
-        <v>705</v>
+        <v>612</v>
       </c>
       <c r="G9" t="s">
-        <v>728</v>
+        <v>635</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>739</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>616</v>
+        <v>544</v>
       </c>
       <c r="B10" t="s">
-        <v>645</v>
+        <v>553</v>
       </c>
       <c r="C10" t="s">
-        <v>666</v>
+        <v>574</v>
       </c>
       <c r="D10" t="s">
-        <v>677</v>
+        <v>584</v>
       </c>
       <c r="E10" t="s">
-        <v>685</v>
+        <v>592</v>
       </c>
       <c r="F10" t="s">
-        <v>706</v>
+        <v>613</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>740</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>617</v>
+        <v>544</v>
       </c>
       <c r="B11" t="s">
-        <v>646</v>
+        <v>554</v>
       </c>
       <c r="C11" t="s">
-        <v>668</v>
+        <v>576</v>
       </c>
       <c r="D11" t="s">
-        <v>678</v>
+        <v>585</v>
       </c>
       <c r="E11" t="s">
-        <v>686</v>
+        <v>593</v>
       </c>
       <c r="F11" t="s">
-        <v>707</v>
+        <v>614</v>
       </c>
       <c r="G11" t="s">
-        <v>729</v>
+        <v>636</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>740</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>618</v>
+        <v>544</v>
       </c>
       <c r="B12" t="s">
-        <v>647</v>
+        <v>555</v>
       </c>
       <c r="C12" t="s">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="D12" t="s">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="E12" t="s">
-        <v>577</v>
+        <v>526</v>
       </c>
       <c r="F12" t="s">
-        <v>708</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>619</v>
+        <v>544</v>
       </c>
       <c r="B13" t="s">
-        <v>648</v>
+        <v>556</v>
       </c>
       <c r="C13" t="s">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="D13" t="s">
-        <v>675</v>
+        <v>582</v>
       </c>
       <c r="E13" t="s">
-        <v>687</v>
+        <v>594</v>
       </c>
       <c r="F13" t="s">
-        <v>709</v>
+        <v>616</v>
       </c>
       <c r="G13" t="s">
-        <v>730</v>
+        <v>637</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>620</v>
+        <v>544</v>
       </c>
       <c r="B14" t="s">
-        <v>649</v>
+        <v>557</v>
       </c>
       <c r="C14" t="s">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="D14" t="s">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="E14" t="s">
-        <v>577</v>
+        <v>526</v>
       </c>
       <c r="F14" t="s">
-        <v>710</v>
+        <v>617</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>621</v>
+        <v>544</v>
       </c>
       <c r="B15" t="s">
-        <v>650</v>
+        <v>558</v>
       </c>
       <c r="C15" t="s">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="D15" t="s">
-        <v>572</v>
+        <v>521</v>
       </c>
       <c r="E15" t="s">
-        <v>578</v>
+        <v>527</v>
       </c>
       <c r="F15" t="s">
-        <v>711</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>622</v>
+        <v>544</v>
       </c>
       <c r="B16" t="s">
-        <v>651</v>
+        <v>559</v>
       </c>
       <c r="C16" t="s">
-        <v>667</v>
+        <v>575</v>
       </c>
       <c r="D16" t="s">
-        <v>572</v>
+        <v>521</v>
       </c>
       <c r="E16" t="s">
-        <v>688</v>
+        <v>595</v>
       </c>
       <c r="F16" t="s">
-        <v>712</v>
+        <v>619</v>
       </c>
       <c r="G16" t="s">
-        <v>731</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>623</v>
+        <v>544</v>
       </c>
       <c r="B17" t="s">
-        <v>652</v>
+        <v>560</v>
       </c>
       <c r="C17" t="s">
-        <v>669</v>
+        <v>577</v>
       </c>
       <c r="D17" t="s">
-        <v>583</v>
+        <v>532</v>
       </c>
       <c r="E17" t="s">
-        <v>689</v>
+        <v>596</v>
       </c>
       <c r="F17" t="s">
-        <v>713</v>
+        <v>620</v>
       </c>
       <c r="G17" t="s">
-        <v>732</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>624</v>
+        <v>544</v>
       </c>
       <c r="B18" t="s">
-        <v>653</v>
+        <v>561</v>
       </c>
       <c r="C18" t="s">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="D18" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="E18" t="s">
-        <v>690</v>
+        <v>597</v>
       </c>
       <c r="F18" t="s">
-        <v>714</v>
+        <v>621</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>625</v>
+        <v>544</v>
       </c>
       <c r="B19" t="s">
-        <v>654</v>
+        <v>562</v>
       </c>
       <c r="C19" t="s">
-        <v>670</v>
+        <v>578</v>
       </c>
       <c r="D19" t="s">
-        <v>679</v>
+        <v>586</v>
       </c>
       <c r="E19" t="s">
-        <v>691</v>
+        <v>598</v>
       </c>
       <c r="F19" t="s">
-        <v>715</v>
+        <v>622</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>626</v>
+        <v>544</v>
       </c>
       <c r="B20" t="s">
-        <v>655</v>
+        <v>563</v>
       </c>
       <c r="C20" t="s">
-        <v>671</v>
+        <v>513</v>
       </c>
       <c r="D20" t="s">
-        <v>572</v>
+        <v>521</v>
       </c>
       <c r="E20" t="s">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="F20" t="s">
-        <v>716</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>627</v>
+        <v>544</v>
       </c>
       <c r="B21" t="s">
-        <v>656</v>
+        <v>564</v>
       </c>
       <c r="C21" t="s">
-        <v>666</v>
+        <v>574</v>
       </c>
       <c r="D21" t="s">
-        <v>680</v>
+        <v>587</v>
       </c>
       <c r="E21" t="s">
-        <v>572</v>
+        <v>521</v>
       </c>
       <c r="F21" t="s">
-        <v>717</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>628</v>
+        <v>544</v>
       </c>
       <c r="B22" t="s">
-        <v>657</v>
+        <v>565</v>
       </c>
       <c r="C22" t="s">
-        <v>672</v>
+        <v>579</v>
       </c>
       <c r="D22" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="E22" t="s">
-        <v>692</v>
+        <v>599</v>
       </c>
       <c r="F22" t="s">
-        <v>718</v>
+        <v>625</v>
       </c>
       <c r="G22" t="s">
-        <v>733</v>
+        <v>640</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>629</v>
+        <v>544</v>
       </c>
       <c r="B23" t="s">
-        <v>658</v>
+        <v>566</v>
       </c>
       <c r="C23" t="s">
-        <v>667</v>
+        <v>575</v>
       </c>
       <c r="F23" t="s">
-        <v>719</v>
+        <v>626</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>630</v>
+        <v>544</v>
       </c>
       <c r="B24" t="s">
-        <v>659</v>
+        <v>567</v>
       </c>
       <c r="C24" t="s">
-        <v>669</v>
+        <v>577</v>
       </c>
       <c r="D24" t="s">
-        <v>571</v>
+        <v>520</v>
       </c>
       <c r="E24" t="s">
-        <v>684</v>
+        <v>591</v>
       </c>
       <c r="F24" t="s">
-        <v>720</v>
+        <v>627</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>740</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>631</v>
+        <v>544</v>
       </c>
       <c r="B25" t="s">
-        <v>660</v>
+        <v>568</v>
       </c>
       <c r="C25" t="s">
+        <v>549</v>
+      </c>
+      <c r="D25" t="s">
+        <v>587</v>
+      </c>
+      <c r="E25" t="s">
+        <v>600</v>
+      </c>
+      <c r="F25" t="s">
+        <v>628</v>
+      </c>
+      <c r="G25" t="s">
         <v>641</v>
       </c>
-      <c r="D25" t="s">
-        <v>680</v>
-      </c>
-      <c r="E25" t="s">
-        <v>693</v>
-      </c>
-      <c r="F25" t="s">
-        <v>721</v>
-      </c>
-      <c r="G25" t="s">
-        <v>734</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>741</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>632</v>
+        <v>544</v>
       </c>
       <c r="B26" t="s">
-        <v>661</v>
+        <v>569</v>
       </c>
       <c r="C26" t="s">
-        <v>666</v>
+        <v>574</v>
       </c>
       <c r="D26" t="s">
-        <v>583</v>
+        <v>532</v>
       </c>
       <c r="E26" t="s">
-        <v>694</v>
+        <v>601</v>
       </c>
       <c r="F26" t="s">
-        <v>722</v>
+        <v>629</v>
       </c>
       <c r="G26" t="s">
-        <v>735</v>
+        <v>642</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>633</v>
+        <v>544</v>
       </c>
       <c r="B27" t="s">
-        <v>662</v>
+        <v>570</v>
       </c>
       <c r="C27" t="s">
-        <v>673</v>
+        <v>580</v>
       </c>
       <c r="D27" t="s">
-        <v>679</v>
+        <v>586</v>
       </c>
       <c r="E27" t="s">
-        <v>695</v>
+        <v>602</v>
       </c>
       <c r="F27" t="s">
-        <v>723</v>
+        <v>630</v>
       </c>
       <c r="G27" t="s">
-        <v>736</v>
+        <v>643</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>634</v>
+        <v>544</v>
       </c>
       <c r="B28" t="s">
-        <v>663</v>
+        <v>571</v>
       </c>
       <c r="C28" t="s">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="D28" t="s">
-        <v>680</v>
+        <v>587</v>
       </c>
       <c r="E28" t="s">
-        <v>572</v>
+        <v>521</v>
       </c>
       <c r="F28" t="s">
-        <v>724</v>
+        <v>631</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>635</v>
+        <v>544</v>
       </c>
       <c r="B29" t="s">
-        <v>664</v>
+        <v>572</v>
       </c>
       <c r="C29" t="s">
-        <v>667</v>
+        <v>575</v>
       </c>
       <c r="D29" t="s">
-        <v>576</v>
+        <v>525</v>
       </c>
       <c r="E29" t="s">
-        <v>696</v>
+        <v>603</v>
       </c>
       <c r="F29" t="s">
-        <v>725</v>
+        <v>632</v>
       </c>
       <c r="G29" t="s">
-        <v>737</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>636</v>
+        <v>544</v>
       </c>
       <c r="B30" t="s">
-        <v>665</v>
+        <v>573</v>
       </c>
       <c r="C30" t="s">
-        <v>670</v>
+        <v>578</v>
       </c>
       <c r="D30" t="s">
-        <v>676</v>
+        <v>583</v>
       </c>
       <c r="E30" t="s">
-        <v>697</v>
+        <v>604</v>
       </c>
       <c r="F30" t="s">
-        <v>726</v>
+        <v>633</v>
       </c>
       <c r="G30" t="s">
-        <v>738</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/samples/4-Sheets-SA-عينة-مدارس-وروضات-preview.xlsx
+++ b/samples/4-Sheets-SA-عينة-مدارس-وروضات-preview.xlsx
@@ -733,28 +733,22 @@
     <t>مركز لضيافة ال...</t>
   </si>
   <si>
-    <t>رعاية نهارية
-2...</t>
-  </si>
-  <si>
-    <t>رعاية نهارية
-0...</t>
-  </si>
-  <si>
-    <t>تمهيدي
-3 - 6 س...</t>
-  </si>
-  <si>
-    <t>حضانة
-0 - 3 سن...</t>
-  </si>
-  <si>
-    <t>رعاية نهارية
-6...</t>
-  </si>
-  <si>
-    <t>روضة
-3 - 6 سنو...</t>
+    <t>رعاية نهارية 2...</t>
+  </si>
+  <si>
+    <t>رعاية نهارية 0...</t>
+  </si>
+  <si>
+    <t>تمهيدي 3 - 6 س...</t>
+  </si>
+  <si>
+    <t>حضانة 0 - 3 سن...</t>
+  </si>
+  <si>
+    <t>رعاية نهارية 6...</t>
+  </si>
+  <si>
+    <t>روضة 3 - 6 سنو...</t>
   </si>
   <si>
     <t>مستقلة</t>
@@ -871,68 +865,52 @@
     <t>مدرسة البتول ا...</t>
   </si>
   <si>
-    <t>عن المدسة
-تقدي...</t>
-  </si>
-  <si>
-    <t>عن المدسة
-تقع ...</t>
-  </si>
-  <si>
-    <t>عن المدسة
-الرؤ...</t>
-  </si>
-  <si>
-    <t>عن المدسة
-تقدم...</t>
-  </si>
-  <si>
-    <t>عن المدسة
-،تقع...</t>
-  </si>
-  <si>
-    <t>عن المدسة
-إن ت...</t>
-  </si>
-  <si>
-    <t>عن المدسة
-تتيح...</t>
-  </si>
-  <si>
-    <t>عن المدسة
-مدار...</t>
-  </si>
-  <si>
-    <t>عن المدسة
- تقد...</t>
-  </si>
-  <si>
-    <t>عن المدسة
-مدرس...</t>
-  </si>
-  <si>
-    <t>عن المدسة
-المد...</t>
-  </si>
-  <si>
-    <t>عن المدسة
-تستق...</t>
-  </si>
-  <si>
-    <t>عن المدسة
-أن ن...</t>
-  </si>
-  <si>
-    <t>عن المدسة
- تس...</t>
-  </si>
-  <si>
-    <t>عن المدسة
-تأسس...</t>
-  </si>
-  <si>
-    <t>عن المدسة
-نسـع...</t>
+    <t>عن المدسة تقدي...</t>
+  </si>
+  <si>
+    <t>عن المدسة تقع ...</t>
+  </si>
+  <si>
+    <t>عن المدسة الرؤ...</t>
+  </si>
+  <si>
+    <t>عن المدسة تقدم...</t>
+  </si>
+  <si>
+    <t>عن المدسة ،تقع...</t>
+  </si>
+  <si>
+    <t>عن المدسة إن ت...</t>
+  </si>
+  <si>
+    <t>عن المدسة تتيح...</t>
+  </si>
+  <si>
+    <t>عن المدسة مدار...</t>
+  </si>
+  <si>
+    <t>عن المدسة  تقد...</t>
+  </si>
+  <si>
+    <t>عن المدسة مدرس...</t>
+  </si>
+  <si>
+    <t>عن المدسة المد...</t>
+  </si>
+  <si>
+    <t>عن المدسة تستق...</t>
+  </si>
+  <si>
+    <t>عن المدسة أن ن...</t>
+  </si>
+  <si>
+    <t>عن المدسة   تس...</t>
+  </si>
+  <si>
+    <t>عن المدسة تأسس...</t>
+  </si>
+  <si>
+    <t>عن المدسة نسـع...</t>
   </si>
   <si>
     <t>أهلية</t>
@@ -1664,8 +1642,7 @@
     <t>3 ولي امر</t>
   </si>
   <si>
-    <t>الرسوم 
-عند ال...</t>
+    <t>الرسوم  عند ال...</t>
   </si>
   <si>
     <t>GoogleMaps Link</t>
